--- a/Rozklad_4.xlsx
+++ b/Rozklad_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="20730" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,44 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="V11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-на 10 годину</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="59">
   <si>
     <t>І</t>
   </si>
@@ -218,12 +182,27 @@
   <si>
     <t>П'ятниця, 26 травня</t>
   </si>
+  <si>
+    <t>Іноземна мова</t>
+  </si>
+  <si>
+    <t>Іноземна мова (залік)</t>
+  </si>
+  <si>
+    <t>доц. Годованець Н.І.</t>
+  </si>
+  <si>
+    <t>Іноземна мова, доц. Годованець Н.І. (505), ст. викл. Машика Н.В. (504а), Остич Д.Ю. (338)</t>
+  </si>
+  <si>
+    <t>Іноземна мова (іспит), доц. Годованець Н.І. (505), ст. викл. Машика Н.В. (504а), Остич Д.Ю. (338)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,21 +215,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -424,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -561,46 +525,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -618,6 +546,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,21 +864,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,268 +959,268 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="49" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="49" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="49" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="49" t="s">
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="49" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="50"/>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="51"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="58"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="47" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="53" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="55" t="s">
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="47"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="47" t="s">
+      <c r="T2" s="60"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="53" t="s">
+      <c r="W2" s="60"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="55" t="s">
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="47" t="s">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="53" t="s">
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="55" t="s">
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="47" t="s">
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="53" t="s">
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="55" t="s">
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="47" t="s">
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="53" t="s">
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="55" t="s">
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="54"/>
-      <c r="BL2" s="47" t="s">
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="48"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="63"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="53"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="53" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="47" t="s">
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="54"/>
-      <c r="BF3" s="55" t="s">
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="47" t="s">
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="54"/>
-      <c r="BL3" s="47" t="s">
+      <c r="BJ3" s="60"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="48"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="D4" s="37">
@@ -1597,18 +1570,20 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="22"/>
+      <c r="D6" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="68"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="35"/>
@@ -1645,7 +1620,7 @@
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
       <c r="AY6" s="16"/>
-      <c r="AZ6" s="60"/>
+      <c r="AZ6" s="48"/>
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
       <c r="BC6" s="3"/>
@@ -1669,18 +1644,20 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="22"/>
+      <c r="D7" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="35"/>
@@ -1717,7 +1694,7 @@
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
       <c r="AY7" s="16"/>
-      <c r="AZ7" s="60"/>
+      <c r="AZ7" s="48"/>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
@@ -1789,7 +1766,7 @@
       <c r="AW8" s="34"/>
       <c r="AX8" s="34"/>
       <c r="AY8" s="16"/>
-      <c r="AZ8" s="60"/>
+      <c r="AZ8" s="48"/>
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
@@ -1801,8 +1778,12 @@
       <c r="BI8" s="20"/>
       <c r="BJ8" s="20"/>
       <c r="BK8" s="21"/>
-      <c r="BL8" s="5"/>
-      <c r="BM8" s="5"/>
+      <c r="BL8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="BN8" s="8"/>
     </row>
     <row r="9" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,15 +1854,19 @@
       <c r="BI9" s="20"/>
       <c r="BJ9" s="20"/>
       <c r="BK9" s="21"/>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="5"/>
+      <c r="BL9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM9" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="BN9" s="8"/>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
       <c r="J10" s="5"/>
@@ -1952,18 +1937,20 @@
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="8"/>
+      <c r="D11" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="7"/>
@@ -2084,8 +2071,12 @@
       <c r="BI12" s="20"/>
       <c r="BJ12" s="20"/>
       <c r="BK12" s="21"/>
-      <c r="BL12" s="5"/>
-      <c r="BM12" s="5"/>
+      <c r="BL12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM12" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="BN12" s="8"/>
     </row>
     <row r="13" spans="1:72" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2484,9 +2475,9 @@
       <c r="AE18" s="20"/>
       <c r="AF18" s="20"/>
       <c r="AG18" s="8"/>
-      <c r="AH18" s="60"/>
+      <c r="AH18" s="48"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="58"/>
+      <c r="AJ18" s="46"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="7"/>
@@ -2574,7 +2565,7 @@
       <c r="AW19" s="3"/>
       <c r="AX19" s="5"/>
       <c r="AY19" s="8"/>
-      <c r="AZ19" s="60"/>
+      <c r="AZ19" s="48"/>
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BC19" s="3"/>
@@ -2919,7 +2910,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-      <c r="AM24" s="58"/>
+      <c r="AM24" s="46"/>
       <c r="AN24" s="5"/>
       <c r="AO24" s="34"/>
       <c r="AP24" s="8"/>
@@ -3146,7 +3137,7 @@
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
       <c r="AY27" s="8"/>
-      <c r="AZ27" s="60"/>
+      <c r="AZ27" s="48"/>
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
       <c r="BC27" s="3"/>
@@ -3290,7 +3281,7 @@
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
       <c r="AY29" s="8"/>
-      <c r="AZ29" s="60"/>
+      <c r="AZ29" s="48"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
       <c r="BC29" s="3"/>
@@ -4271,7 +4262,7 @@
       <c r="AE43" s="20"/>
       <c r="AF43" s="20"/>
       <c r="AG43" s="8"/>
-      <c r="AH43" s="60"/>
+      <c r="AH43" s="48"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="5"/>
@@ -4343,7 +4334,7 @@
       <c r="AE44" s="20"/>
       <c r="AF44" s="20"/>
       <c r="AG44" s="8"/>
-      <c r="AH44" s="60"/>
+      <c r="AH44" s="48"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="5"/>
@@ -4634,7 +4625,7 @@
       <c r="AM48" s="7"/>
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
-      <c r="AP48" s="63"/>
+      <c r="AP48" s="51"/>
       <c r="AQ48" s="6"/>
       <c r="AR48" s="5"/>
       <c r="AS48" s="7"/>
@@ -4706,7 +4697,7 @@
       <c r="AM49" s="7"/>
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
-      <c r="AP49" s="63"/>
+      <c r="AP49" s="51"/>
       <c r="AQ49" s="6"/>
       <c r="AR49" s="5"/>
       <c r="AS49" s="7"/>
@@ -4716,7 +4707,7 @@
       <c r="AW49" s="5"/>
       <c r="AX49" s="5"/>
       <c r="AY49" s="8"/>
-      <c r="AZ49" s="60"/>
+      <c r="AZ49" s="48"/>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
       <c r="BC49" s="3"/>
@@ -4784,7 +4775,7 @@
       <c r="AW50" s="5"/>
       <c r="AX50" s="5"/>
       <c r="AY50" s="8"/>
-      <c r="AZ50" s="60"/>
+      <c r="AZ50" s="48"/>
       <c r="BA50" s="3"/>
       <c r="BB50" s="3"/>
       <c r="BC50" s="3"/>
@@ -5288,7 +5279,7 @@
       <c r="AW57" s="5"/>
       <c r="AX57" s="5"/>
       <c r="AY57" s="8"/>
-      <c r="AZ57" s="60"/>
+      <c r="AZ57" s="48"/>
       <c r="BA57" s="3"/>
       <c r="BB57" s="3"/>
       <c r="BC57" s="3"/>
@@ -5936,7 +5927,7 @@
       <c r="AW66" s="5"/>
       <c r="AX66" s="5"/>
       <c r="AY66" s="8"/>
-      <c r="AZ66" s="60"/>
+      <c r="AZ66" s="48"/>
       <c r="BA66" s="3"/>
       <c r="BB66" s="3"/>
       <c r="BC66" s="3"/>
@@ -6008,7 +5999,7 @@
       <c r="AW67" s="5"/>
       <c r="AX67" s="5"/>
       <c r="AY67" s="8"/>
-      <c r="AZ67" s="60"/>
+      <c r="AZ67" s="48"/>
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
       <c r="BC67" s="3"/>
@@ -6411,14 +6402,14 @@
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
       <c r="X73" s="14"/>
-      <c r="Y73" s="61"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
-      <c r="AD73" s="64"/>
-      <c r="AE73" s="62"/>
-      <c r="AF73" s="62"/>
+      <c r="Y73" s="49"/>
+      <c r="Z73" s="50"/>
+      <c r="AA73" s="52"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="52"/>
+      <c r="AE73" s="50"/>
+      <c r="AF73" s="50"/>
       <c r="AG73" s="14"/>
       <c r="AH73" s="11"/>
       <c r="AI73" s="12"/>
@@ -6455,12 +6446,12 @@
       <c r="BN73" s="14"/>
     </row>
     <row r="74" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -6488,7 +6479,7 @@
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="7"/>
-      <c r="AK74" s="65"/>
+      <c r="AK74" s="53"/>
       <c r="AL74" s="5"/>
       <c r="AM74" s="5"/>
       <c r="AN74" s="5"/>
@@ -6591,12 +6582,12 @@
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -6659,12 +6650,12 @@
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -6727,12 +6718,12 @@
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -6792,12 +6783,12 @@
       <c r="BN78" s="5"/>
     </row>
     <row r="79" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -6928,12 +6919,12 @@
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -6996,12 +6987,12 @@
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -7064,12 +7055,12 @@
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -7132,12 +7123,12 @@
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -7633,23 +7624,12 @@
       <c r="BN91" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="AZ2:BE2"/>
+  <mergeCells count="44">
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AW2:AY3"/>
     <mergeCell ref="BF2:BK2"/>
     <mergeCell ref="BL2:BN2"/>
     <mergeCell ref="BL3:BN3"/>
@@ -7666,18 +7646,31 @@
     <mergeCell ref="BC3:BE3"/>
     <mergeCell ref="BF3:BH3"/>
     <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AZ2:BE2"/>
     <mergeCell ref="Y1:AG1"/>
     <mergeCell ref="AH1:AP1"/>
     <mergeCell ref="AQ1:AY1"/>
     <mergeCell ref="AZ1:BN1"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Rozklad_4.xlsx
+++ b/Rozklad_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20730" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="V42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+на 10 00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+на 9 00
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="194">
   <si>
     <t>І</t>
   </si>
@@ -196,13 +255,418 @@
   </si>
   <si>
     <t>Іноземна мова (іспит), доц. Годованець Н.І. (505), ст. викл. Машика Н.В. (504а), Остич Д.Ю. (338)</t>
+  </si>
+  <si>
+    <t>Лісова ентомологія</t>
+  </si>
+  <si>
+    <t>доц. Мірутенко В.В.</t>
+  </si>
+  <si>
+    <t>Недеревні ресурси</t>
+  </si>
+  <si>
+    <t>Лісова ентомологія (іспит)</t>
+  </si>
+  <si>
+    <t>Недеревні ресурси (іспит)</t>
+  </si>
+  <si>
+    <t>Регулювання продуктивності лісів (курсовий проект)</t>
+  </si>
+  <si>
+    <t>09 00</t>
+  </si>
+  <si>
+    <t>Регулювання продуктивності лісів (іспит)</t>
+  </si>
+  <si>
+    <t>проф. Гриник Г.Г.</t>
+  </si>
+  <si>
+    <t>Педагогіка</t>
+  </si>
+  <si>
+    <t>доц. Маляр Л.В.</t>
+  </si>
+  <si>
+    <t>Педагогіка (іспит)</t>
+  </si>
+  <si>
+    <t>Географічні інформаційні системи</t>
+  </si>
+  <si>
+    <t>Географічні інформаційні системи (іспит)</t>
+  </si>
+  <si>
+    <t>доц. Єпішев В.П.; викл. Озимко Р.Р.</t>
+  </si>
+  <si>
+    <t>Цивільний захист, ас. Муртазін О.А.</t>
+  </si>
+  <si>
+    <t>Цивільний захист (іспит), ас. Муртазін О.А.</t>
+  </si>
+  <si>
+    <t>Геоботаніка</t>
+  </si>
+  <si>
+    <t>проф. Фелбаба-Клушина Л.М.</t>
+  </si>
+  <si>
+    <t>Регіональне лісівництво</t>
+  </si>
+  <si>
+    <t>Регіональне лісівництво (іспит)</t>
+  </si>
+  <si>
+    <t>Регіональне лісівництво (курсовий проект)</t>
+  </si>
+  <si>
+    <t>доц. Кічура А.В.</t>
+  </si>
+  <si>
+    <t>Вища математика</t>
+  </si>
+  <si>
+    <t>Вища математика (іспит)</t>
+  </si>
+  <si>
+    <t>мат .фак.</t>
+  </si>
+  <si>
+    <t>доц. Маляр М.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Картографування грунтів  </t>
+  </si>
+  <si>
+    <t>Картографування грунтів  (іспит)</t>
+  </si>
+  <si>
+    <t>ст. викл. Романко В.О.</t>
+  </si>
+  <si>
+    <t>Фотограмметрія та дистанційне зондування</t>
+  </si>
+  <si>
+    <t>ст. викл. Жиган М.В.</t>
+  </si>
+  <si>
+    <t>Фотограмметрія та дистанційне зондування (курсова робота)</t>
+  </si>
+  <si>
+    <t>Фотограмметрія та дистанційне зондування (залік)</t>
+  </si>
+  <si>
+    <t>Фізична географія материків і океанів  (кр)</t>
+  </si>
+  <si>
+    <t>ст. викл. Мельничук В.П.</t>
+  </si>
+  <si>
+    <t>Фізична географія материків і океанів  (курсова робота)</t>
+  </si>
+  <si>
+    <t>Метеорологія та кліматологія</t>
+  </si>
+  <si>
+    <t>Метеорологія та кліматологія (іспит)</t>
+  </si>
+  <si>
+    <t>Основи картографії</t>
+  </si>
+  <si>
+    <t>ст.викл. Лахоцька Е.Я.</t>
+  </si>
+  <si>
+    <t>Основи картографії (залік)</t>
+  </si>
+  <si>
+    <t>Рекреаційна географія та географія туризму</t>
+  </si>
+  <si>
+    <t>ст. викл. Шароді В.В.</t>
+  </si>
+  <si>
+    <t>Рекреаційна географія та географія туризму (залік)</t>
+  </si>
+  <si>
+    <t>Геодезія</t>
+  </si>
+  <si>
+    <t>Геодезія (залік)</t>
+  </si>
+  <si>
+    <t>проф. Дробнич В.Г.</t>
+  </si>
+  <si>
+    <t>Вища математика (залік)</t>
+  </si>
+  <si>
+    <t>Основи моніторингу, екологічна експертиза і аудит</t>
+  </si>
+  <si>
+    <t>Хімія (іспит)</t>
+  </si>
+  <si>
+    <t>Креслення</t>
+  </si>
+  <si>
+    <t>Креслення (іспит)</t>
+  </si>
+  <si>
+    <t>доц. Штадна І.Ю.</t>
+  </si>
+  <si>
+    <t>Біометрія</t>
+  </si>
+  <si>
+    <t>Біометрія (іспит)</t>
+  </si>
+  <si>
+    <t>доц. Чепур С.С.</t>
+  </si>
+  <si>
+    <t>Грунтознавство</t>
+  </si>
+  <si>
+    <t>ст. викл. Мойш Н.І.</t>
+  </si>
+  <si>
+    <t>Грунтознавство (іспит)</t>
+  </si>
+  <si>
+    <t>доц. Мигаль А.В.</t>
+  </si>
+  <si>
+    <t>Дендрологія</t>
+  </si>
+  <si>
+    <t>Дендрологія (іспит)</t>
+  </si>
+  <si>
+    <t>Лісознавство</t>
+  </si>
+  <si>
+    <t>Лісознавство (іспит)</t>
+  </si>
+  <si>
+    <t>ст. викл. Ничвид М.Р.</t>
+  </si>
+  <si>
+    <t>Математична обробка геодезичних вимірювань (іспит)</t>
+  </si>
+  <si>
+    <t>Методика викладання географії в школі</t>
+  </si>
+  <si>
+    <t>Методика викладання географії в школі (залік)</t>
+  </si>
+  <si>
+    <t>ст. викл. Глюдзик Г.Б.</t>
+  </si>
+  <si>
+    <t>Вища геодезія</t>
+  </si>
+  <si>
+    <t>Геодезія (іспит)</t>
+  </si>
+  <si>
+    <t>ст.викл. Лахоцька Е.Я., ст. викл. Стасюк В.І.</t>
+  </si>
+  <si>
+    <t>Земельне право</t>
+  </si>
+  <si>
+    <t>ст.викл. Марухнич Т.Б.</t>
+  </si>
+  <si>
+    <t>Земельне право (іспит)</t>
+  </si>
+  <si>
+    <t>Охорона праці</t>
+  </si>
+  <si>
+    <t>ст.викл. Смужаниця Я.В.</t>
+  </si>
+  <si>
+    <t>Охорона праці (іспит)</t>
+  </si>
+  <si>
+    <t>Землеустрій</t>
+  </si>
+  <si>
+    <t>ст.викл. Пересоляк Р.В</t>
+  </si>
+  <si>
+    <t>Землеустрій (курсовий проект)</t>
+  </si>
+  <si>
+    <t>Землеустрій (іспит)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Географія рідного краю і методика її викладання </t>
+  </si>
+  <si>
+    <t>доц. Салюк М.Р.</t>
+  </si>
+  <si>
+    <t>Географія рідного краю і методика її викладання (іспит)</t>
+  </si>
+  <si>
+    <t>доц. Фекета І.Ю.</t>
+  </si>
+  <si>
+    <t>Основи моніторингу, екологічна експертиза і аудит (іспит)</t>
+  </si>
+  <si>
+    <t>Основи суспільної та соціальної географії</t>
+  </si>
+  <si>
+    <t>доц. Славік Р.В.</t>
+  </si>
+  <si>
+    <t>Основи суспільної та соціальної географії (іспит)</t>
+  </si>
+  <si>
+    <t>доц. Микита М.М.</t>
+  </si>
+  <si>
+    <t>Фізична географія України</t>
+  </si>
+  <si>
+    <t>Фізична географія України (курсова робота)</t>
+  </si>
+  <si>
+    <t>Фізична географія України (іспит)</t>
+  </si>
+  <si>
+    <t>Озеленення населених місць</t>
+  </si>
+  <si>
+    <t>доц. Чепур С.С.; ст. викл. Мойш Н.І.</t>
+  </si>
+  <si>
+    <t>Озеленення населених місць (іспит)</t>
+  </si>
+  <si>
+    <t>Фітопатологія</t>
+  </si>
+  <si>
+    <t>доцент Мигаль А.В.; ст. викл. Мойш Н.І.</t>
+  </si>
+  <si>
+    <t>Декоративне луківництво</t>
+  </si>
+  <si>
+    <t>Декоративне луківництво (залік)</t>
+  </si>
+  <si>
+    <t>Фітопатологія (іспит)</t>
+  </si>
+  <si>
+    <t>Лісові культури (кп)</t>
+  </si>
+  <si>
+    <t>ст. викл. Задорожний А.І.</t>
+  </si>
+  <si>
+    <t>Лісові культури (іспит)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Інженерна геодезія </t>
+  </si>
+  <si>
+    <t>ст.викл. Ничвид М.Р.</t>
+  </si>
+  <si>
+    <t>Інженерна геодезія (залік)</t>
+  </si>
+  <si>
+    <t>Вища геодезія (іспит)</t>
+  </si>
+  <si>
+    <t>Супутникова геодезія та сферична астрономія</t>
+  </si>
+  <si>
+    <t>проф. Каблак Н.І.; ас. Ваш Я.І.</t>
+  </si>
+  <si>
+    <t>Супутникова геодезія та сферична астрономія (залік)</t>
+  </si>
+  <si>
+    <t>Практикум із землевпорядних робіт</t>
+  </si>
+  <si>
+    <t>викл. Бубенко С.П.</t>
+  </si>
+  <si>
+    <t>Історія земельних відносин  та землеустрою</t>
+  </si>
+  <si>
+    <t>Історія земельних відносин  та землеустрою (залік)</t>
+  </si>
+  <si>
+    <t>Практикум із землевпорядних робіт (залік)</t>
+  </si>
+  <si>
+    <t>Лісова таксація (де)</t>
+  </si>
+  <si>
+    <t>Механізація лісогосподарських та садово-паркових робіт</t>
+  </si>
+  <si>
+    <t>Основи екології</t>
+  </si>
+  <si>
+    <t>доц. Потіш Л.А.</t>
+  </si>
+  <si>
+    <t>Основи екології (залік)</t>
+  </si>
+  <si>
+    <t>Лісове деревинознавство (залік)</t>
+  </si>
+  <si>
+    <t>Механізація лісогосподарських та садово-паркових робіт (іспит)</t>
+  </si>
+  <si>
+    <t>Лісова таксація (іспит)</t>
+  </si>
+  <si>
+    <t>Лісова зоологія (іспит)</t>
+  </si>
+  <si>
+    <t>Ботаніка</t>
+  </si>
+  <si>
+    <t>на 10 00</t>
+  </si>
+  <si>
+    <t>Фізика</t>
+  </si>
+  <si>
+    <t>доц. Шароді І.С.</t>
+  </si>
+  <si>
+    <t>Фізика (2 пари), доц. Шароді І.С.</t>
+  </si>
+  <si>
+    <t>Фізика (консультація), доц. Шароді І.С.</t>
+  </si>
+  <si>
+    <t>Фізика (іспит), доц. Шароді І.С.</t>
+  </si>
+  <si>
+    <t>Фізика з основами геофізики</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +687,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +711,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -547,11 +1030,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -562,25 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +1074,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,21 +1362,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,268 +1457,268 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="56" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="56" t="s">
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="56" t="s">
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="56" t="s">
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="56" t="s">
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="58"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="64"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="60" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="59" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62" t="s">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="60" t="s">
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="60"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="59" t="s">
+      <c r="W2" s="57"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="62" t="s">
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="60" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="59" t="s">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="62" t="s">
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="60" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="59" t="s">
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="62" t="s">
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="60" t="s">
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="59" t="s">
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="62" t="s">
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="61"/>
-      <c r="BL2" s="60" t="s">
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="63"/>
+      <c r="BM2" s="57"/>
+      <c r="BN2" s="59"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="59" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="60" t="s">
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="62" t="s">
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="60" t="s">
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="60" t="s">
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="58"/>
+      <c r="BL3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="64"/>
-      <c r="BT3" s="64"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="59"/>
+      <c r="BO3" s="55"/>
+      <c r="BP3" s="55"/>
+      <c r="BQ3" s="55"/>
+      <c r="BR3" s="55"/>
+      <c r="BS3" s="55"/>
+      <c r="BT3" s="55"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="D4" s="37">
@@ -1584,32 +2082,62 @@
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
       <c r="O6" s="68"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="5"/>
+      <c r="P6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R6" s="35"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="S6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="U6" s="35"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="V6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="X6" s="16"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="20"/>
+      <c r="Y6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="AA6" s="21"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
       <c r="AD6" s="21"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
+      <c r="AE6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="AG6" s="44"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="34"/>
+      <c r="AH6" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI6" s="34" t="s">
+        <v>128</v>
+      </c>
       <c r="AJ6" s="35"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
+      <c r="AK6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="AM6" s="35"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
+      <c r="AN6" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO6" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="AP6" s="16"/>
       <c r="AQ6" s="33"/>
       <c r="AR6" s="34"/>
@@ -1620,11 +2148,13 @@
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
       <c r="AY6" s="16"/>
-      <c r="AZ6" s="48"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="34"/>
+      <c r="AZ6" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="71"/>
+      <c r="BC6" s="71"/>
+      <c r="BD6" s="71"/>
       <c r="BE6" s="21"/>
       <c r="BF6" s="20"/>
       <c r="BG6" s="20"/>
@@ -1658,32 +2188,62 @@
       <c r="M7" s="67"/>
       <c r="N7" s="67"/>
       <c r="O7" s="68"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R7" s="35"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="S7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="U7" s="35"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="V7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="X7" s="16"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="20"/>
+      <c r="Y7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="AA7" s="21"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
       <c r="AD7" s="21"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
+      <c r="AE7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF7" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="AG7" s="16"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="34"/>
+      <c r="AH7" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI7" s="34" t="s">
+        <v>128</v>
+      </c>
       <c r="AJ7" s="35"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
+      <c r="AK7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="AM7" s="35"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
+      <c r="AN7" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO7" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="AP7" s="16"/>
       <c r="AQ7" s="33"/>
       <c r="AR7" s="34"/>
@@ -1694,11 +2254,13 @@
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
       <c r="AY7" s="16"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="34"/>
+      <c r="AZ7" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="71"/>
+      <c r="BC7" s="71"/>
+      <c r="BD7" s="71"/>
       <c r="BE7" s="21"/>
       <c r="BF7" s="20"/>
       <c r="BG7" s="20"/>
@@ -1727,20 +2289,38 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
+      <c r="M8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R8" s="21"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="V8" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="W8" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="X8" s="22"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="20"/>
+      <c r="Y8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
@@ -1751,11 +2331,19 @@
       <c r="AH8" s="33"/>
       <c r="AI8" s="34"/>
       <c r="AJ8" s="35"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
+      <c r="AK8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AM8" s="35"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
+      <c r="AN8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO8" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="AP8" s="16"/>
       <c r="AQ8" s="33"/>
       <c r="AR8" s="34"/>
@@ -1770,7 +2358,7 @@
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
-      <c r="BD8" s="34"/>
+      <c r="BD8" s="3"/>
       <c r="BE8" s="21"/>
       <c r="BF8" s="20"/>
       <c r="BG8" s="20"/>
@@ -1803,17 +2391,27 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="21"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="22"/>
+      <c r="M9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="P9" s="33"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="35"/>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="35"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
+      <c r="V9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="X9" s="16"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="20"/>
@@ -1827,11 +2425,19 @@
       <c r="AH9" s="33"/>
       <c r="AI9" s="34"/>
       <c r="AJ9" s="35"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
+      <c r="AK9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AM9" s="35"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="5"/>
+      <c r="AN9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="33"/>
       <c r="AR9" s="34"/>
@@ -1951,32 +2557,64 @@
       <c r="M11" s="67"/>
       <c r="N11" s="67"/>
       <c r="O11" s="68"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
+      <c r="V11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="X11" s="8"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="20"/>
+      <c r="Y11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="AA11" s="21"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
+      <c r="AB11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC11" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="AD11" s="21"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
+      <c r="AE11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF11" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="AG11" s="16"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="5"/>
+      <c r="AH11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
+      <c r="AK11" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL11" s="34" t="s">
+        <v>166</v>
+      </c>
       <c r="AM11" s="35"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="3"/>
+      <c r="AN11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="AP11" s="8"/>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="5"/>
@@ -2020,35 +2658,73 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R12" s="7"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
+      <c r="V12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="X12" s="8"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="20"/>
+      <c r="Y12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="AA12" s="21"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
+      <c r="AB12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC12" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="AD12" s="21"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
+      <c r="AE12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF12" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="AG12" s="8"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="5"/>
+      <c r="AH12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
+      <c r="AK12" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL12" s="34" t="s">
+        <v>166</v>
+      </c>
       <c r="AM12" s="35"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="3"/>
+      <c r="AN12" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="AP12" s="8"/>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="5"/>
@@ -2099,29 +2775,41 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R13" s="7"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="20"/>
       <c r="AA13" s="21"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
+      <c r="AB13" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="AD13" s="21"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
+      <c r="AE13" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF13" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="AG13" s="8"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="7"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AK13" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL13" s="34" t="s">
+        <v>166</v>
+      </c>
       <c r="AM13" s="7"/>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
@@ -2177,8 +2865,6 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="20"/>
@@ -2192,8 +2878,12 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AK14" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL14" s="34" t="s">
+        <v>166</v>
+      </c>
       <c r="AM14" s="7"/>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
@@ -2236,14 +2926,24 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="8"/>
+      <c r="M15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="8">
+        <v>216</v>
+      </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="S15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="U15" s="7"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
@@ -2304,23 +3004,39 @@
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="G16" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="8"/>
+      <c r="M16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="8">
+        <v>216</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="S16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="U16" s="7"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="V16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="X16" s="8"/>
       <c r="Y16" s="19"/>
       <c r="Z16" s="20"/>
@@ -2331,11 +3047,19 @@
       <c r="AE16" s="20"/>
       <c r="AF16" s="20"/>
       <c r="AG16" s="8"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="5"/>
+      <c r="AH16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AK16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AM16" s="7"/>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
@@ -2385,20 +3109,40 @@
       <c r="M17" s="5"/>
       <c r="N17" s="23"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="5"/>
+      <c r="P17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="S17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="U17" s="7"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+      <c r="V17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="X17" s="8"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="20"/>
+      <c r="Y17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z17" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="AA17" s="21"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
+      <c r="AB17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC17" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="AD17" s="21"/>
       <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
@@ -2406,11 +3150,19 @@
       <c r="AH17" s="6"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="7"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AK17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
+      <c r="AN17" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO17" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="5"/>
@@ -2463,23 +3215,43 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
+      <c r="V18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="X18" s="8"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="20"/>
+      <c r="Y18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z18" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="AA18" s="21"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
+      <c r="AB18" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="AD18" s="21"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
+      <c r="AE18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF18" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="AG18" s="8"/>
       <c r="AH18" s="48"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="46"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AK18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="AM18" s="7"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
@@ -2509,7 +3281,7 @@
       <c r="BM18" s="3"/>
       <c r="BN18" s="8"/>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -2544,8 +3316,12 @@
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="21"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
+      <c r="AE19" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF19" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="AG19" s="8"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="5"/>
@@ -2649,7 +3425,7 @@
       <c r="BM20" s="5"/>
       <c r="BN20" s="8"/>
     </row>
-    <row r="21" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2662,17 +3438,23 @@
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="G21" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
       <c r="L21" s="7"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="5"/>
+      <c r="P21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="R21" s="7"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -2680,8 +3462,6 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="20"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
@@ -2692,8 +3472,12 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AK21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AM21" s="35"/>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
@@ -2740,35 +3524,64 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="5"/>
+      <c r="P22" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="R22" s="7"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="S22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="U22" s="7"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+      <c r="V22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="X22" s="8"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="20"/>
+      <c r="Y22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="AA22" s="21"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
+      <c r="AB22" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC22" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="AD22" s="21"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
+      <c r="AE22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF22" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="AG22" s="8"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="7"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AK22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AM22" s="35"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
+      <c r="AN22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO22" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="AP22" s="8"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="5"/>
@@ -2812,35 +3625,60 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="8"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="S23" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="U23" s="7"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="V23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="20"/>
+      <c r="Y23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="AA23" s="21"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
+      <c r="AB23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="AD23" s="21"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
+      <c r="AE23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF23" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="AG23" s="8"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="7"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AK23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AM23" s="35"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
+      <c r="AN23" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO23" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="AP23" s="8"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="5"/>
@@ -2899,17 +3737,18 @@
       <c r="Y24" s="19"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="21"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
       <c r="AD24" s="21"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
+      <c r="AF24" s="5"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="7"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
+      <c r="AK24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="AM24" s="46"/>
       <c r="AN24" s="5"/>
       <c r="AO24" s="34"/>
@@ -2940,17 +3779,22 @@
       <c r="BN24" s="8"/>
     </row>
     <row r="25" spans="1:66" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="G25" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
       <c r="L25" s="7"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3017,14 +3861,18 @@
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
       <c r="L26" s="7"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3047,8 +3895,12 @@
       <c r="AE26" s="20"/>
       <c r="AF26" s="20"/>
       <c r="AG26" s="8"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="5"/>
+      <c r="AH26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
@@ -3101,32 +3953,64 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="5"/>
+      <c r="P27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
+      <c r="S27" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="T27" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="U27" s="7"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
+      <c r="V27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="X27" s="8"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="20"/>
+      <c r="Y27" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z27" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="AA27" s="21"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
+      <c r="AB27" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC27" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="AD27" s="21"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
+      <c r="AE27" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF27" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="AG27" s="8"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="7"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AK27" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL27" s="54" t="s">
+        <v>166</v>
+      </c>
       <c r="AM27" s="35"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="3"/>
+      <c r="AN27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="AP27" s="8"/>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="5"/>
@@ -3173,32 +4057,64 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="5"/>
+      <c r="P28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
+      <c r="S28" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="T28" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="U28" s="7"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
+      <c r="V28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="20"/>
+      <c r="Y28" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z28" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="AA28" s="21"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
+      <c r="AB28" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC28" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="AD28" s="21"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
+      <c r="AE28" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF28" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="AG28" s="8"/>
       <c r="AH28" s="33"/>
       <c r="AI28" s="34"/>
       <c r="AJ28" s="7"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AK28" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL28" s="54" t="s">
+        <v>166</v>
+      </c>
       <c r="AM28" s="35"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
+      <c r="AN28" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO28" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="AP28" s="8"/>
       <c r="AQ28" s="6"/>
       <c r="AR28" s="5"/>
@@ -3365,7 +4281,7 @@
       <c r="BM30" s="5"/>
       <c r="BN30" s="8"/>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -3390,14 +4306,16 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
       <c r="U31" s="7"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="8"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="20"/>
+      <c r="Y31" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z31" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
@@ -3405,11 +4323,19 @@
       <c r="AE31" s="20"/>
       <c r="AF31" s="20"/>
       <c r="AG31" s="8"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="5"/>
+      <c r="AH31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI31" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="AJ31" s="7"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AK31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AM31" s="35"/>
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
@@ -3435,8 +4361,12 @@
       <c r="BI31" s="5"/>
       <c r="BJ31" s="5"/>
       <c r="BK31" s="7"/>
-      <c r="BL31" s="3"/>
-      <c r="BM31" s="5"/>
+      <c r="BL31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM31" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="BN31" s="8"/>
     </row>
     <row r="32" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3456,23 +4386,35 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="M32" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="O32" s="8"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="5"/>
+      <c r="P32" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="S32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="U32" s="7"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
+      <c r="V32" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="W32" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="X32" s="8"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="20"/>
       <c r="AA32" s="21"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="20"/>
       <c r="AF32" s="20"/>
@@ -3480,8 +4422,12 @@
       <c r="AH32" s="6"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="7"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AK32" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL32" s="54" t="s">
+        <v>166</v>
+      </c>
       <c r="AM32" s="7"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="5"/>
@@ -3507,8 +4453,12 @@
       <c r="BI32" s="5"/>
       <c r="BJ32" s="5"/>
       <c r="BK32" s="7"/>
-      <c r="BL32" s="5"/>
-      <c r="BM32" s="5"/>
+      <c r="BL32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM32" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="BN32" s="8"/>
     </row>
     <row r="33" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,32 +4481,46 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="5"/>
+      <c r="P33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q33" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="U33" s="7"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="20"/>
       <c r="AA33" s="21"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
+      <c r="AB33" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC33" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="AD33" s="21"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
+      <c r="AE33" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF33" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="AG33" s="8"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="7"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
       <c r="AM33" s="7"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
+      <c r="AN33" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO33" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="AP33" s="8"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="5"/>
@@ -3655,22 +4619,33 @@
       <c r="BM34" s="5"/>
       <c r="BN34" s="8"/>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="G35" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="8"/>
+      <c r="M35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="7"/>
@@ -3719,8 +4694,12 @@
       <c r="BI35" s="5"/>
       <c r="BJ35" s="5"/>
       <c r="BK35" s="7"/>
-      <c r="BL35" s="5"/>
-      <c r="BM35" s="5"/>
+      <c r="BL35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM35" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="BN35" s="8"/>
     </row>
     <row r="36" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,17 +4715,23 @@
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="G36" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
       <c r="L36" s="7"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="5"/>
+      <c r="P36" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q36" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="R36" s="7"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -3754,8 +4739,6 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="8"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="20"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
@@ -3766,8 +4749,12 @@
       <c r="AH36" s="6"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="7"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AK36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AM36" s="7"/>
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
@@ -3814,32 +4801,49 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="20"/>
+      <c r="M37" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="N37" s="20"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="5"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
+      <c r="S37" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="T37" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="U37" s="21"/>
+      <c r="V37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="X37" s="8"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="20"/>
+      <c r="Y37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="AA37" s="21"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
+      <c r="AE37" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF37" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="AG37" s="8"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="7"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AK37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AM37" s="7"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="5"/>
@@ -3886,35 +4890,50 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="5"/>
+      <c r="M38" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
+      <c r="S38" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="T38" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="U38" s="21"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="20"/>
+      <c r="Y38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="AA38" s="21"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="21"/>
+      <c r="AB38" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC38" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="AE38" s="20"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="7"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AK38" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL38" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM38" s="7"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="5"/>
+      <c r="AN38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO38" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="AP38" s="8"/>
       <c r="AQ38" s="6"/>
       <c r="AR38" s="5"/>
@@ -3970,8 +4989,6 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="8"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="20"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="20"/>
       <c r="AC39" s="20"/>
@@ -3982,8 +4999,12 @@
       <c r="AH39" s="6"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="7"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
+      <c r="AK39" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL39" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM39" s="7"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
@@ -4035,8 +5056,6 @@
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="8"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="20"/>
       <c r="AA40" s="21"/>
       <c r="AB40" s="20"/>
       <c r="AC40" s="20"/>
@@ -4097,11 +5116,19 @@
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="21"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="M41" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="O41" s="22"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="5"/>
+      <c r="P41" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R41" s="7"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -4109,11 +5136,19 @@
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="8"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="20"/>
+      <c r="Y41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="AA41" s="21"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
+      <c r="AB41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC41" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="AD41" s="21"/>
       <c r="AE41" s="20"/>
       <c r="AF41" s="20"/>
@@ -4121,11 +5156,19 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="7"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
+      <c r="AK41" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL41" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM41" s="7"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
+      <c r="AN41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO41" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="AP41" s="8"/>
       <c r="AQ41" s="6"/>
       <c r="AR41" s="5"/>
@@ -4136,11 +5179,13 @@
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
       <c r="AY41" s="8"/>
-      <c r="AZ41" s="6"/>
-      <c r="BA41" s="5"/>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="5"/>
+      <c r="AZ41" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA41" s="71"/>
+      <c r="BB41" s="71"/>
+      <c r="BC41" s="71"/>
+      <c r="BD41" s="71"/>
       <c r="BE41" s="7"/>
       <c r="BF41" s="5"/>
       <c r="BG41" s="5"/>
@@ -4169,23 +5214,41 @@
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="21"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
+      <c r="M42" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="N42" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="O42" s="22"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="5"/>
+      <c r="P42" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q42" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R42" s="7"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="34"/>
+      <c r="V42" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="W42" s="34"/>
       <c r="X42" s="8"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="20"/>
+      <c r="Y42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="AA42" s="21"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
+      <c r="AB42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC42" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="AD42" s="21"/>
       <c r="AE42" s="20"/>
       <c r="AF42" s="20"/>
@@ -4193,11 +5256,13 @@
       <c r="AH42" s="6"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="7"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AK42" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL42" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM42" s="7"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
       <c r="AP42" s="8"/>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="5"/>
@@ -4208,11 +5273,13 @@
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
       <c r="AY42" s="8"/>
-      <c r="AZ42" s="19"/>
-      <c r="BA42" s="20"/>
-      <c r="BB42" s="20"/>
-      <c r="BC42" s="20"/>
-      <c r="BD42" s="20"/>
+      <c r="AZ42" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA42" s="71"/>
+      <c r="BB42" s="71"/>
+      <c r="BC42" s="71"/>
+      <c r="BD42" s="71"/>
       <c r="BE42" s="21"/>
       <c r="BF42" s="5"/>
       <c r="BG42" s="5"/>
@@ -4265,8 +5332,12 @@
       <c r="AH43" s="48"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="7"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AK43" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL43" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM43" s="7"/>
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
@@ -4337,10 +5408,13 @@
       <c r="AH44" s="48"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="7"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
+      <c r="AK44" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL44" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM44" s="7"/>
-      <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
       <c r="AP44" s="8"/>
       <c r="AQ44" s="6"/>
@@ -4455,17 +5529,29 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="5"/>
+      <c r="P46" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q46" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R46" s="7"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="7"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
+      <c r="V46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="X46" s="8"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="20"/>
+      <c r="Y46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="20"/>
       <c r="AC46" s="20"/>
@@ -4476,8 +5562,12 @@
       <c r="AH46" s="6"/>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="7"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
+      <c r="AK46" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL46" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM46" s="7"/>
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
@@ -4524,11 +5614,17 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="5"/>
+      <c r="M47" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="5"/>
+      <c r="P47" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q47" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="R47" s="7"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
@@ -4536,20 +5632,32 @@
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="8"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="20"/>
+      <c r="Y47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="AA47" s="21"/>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
       <c r="AD47" s="21"/>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
+      <c r="AE47" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF47" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="AG47" s="8"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="7"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
+      <c r="AK47" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL47" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM47" s="7"/>
       <c r="AN47" s="5"/>
       <c r="AO47" s="5"/>
@@ -4599,8 +5707,6 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="5"/>
       <c r="R48" s="7"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -4608,20 +5714,30 @@
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="8"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="20"/>
       <c r="AA48" s="21"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
+      <c r="AB48" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC48" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="AD48" s="21"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
+      <c r="AE48" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF48" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="AG48" s="8"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="7"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
+      <c r="AK48" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL48" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM48" s="7"/>
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
@@ -4683,8 +5799,12 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="21"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
+      <c r="AB49" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC49" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="AD49" s="21"/>
       <c r="AE49" s="20"/>
       <c r="AF49" s="20"/>
@@ -4692,8 +5812,12 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="7"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
+      <c r="AK49" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL49" s="72" t="s">
+        <v>173</v>
+      </c>
       <c r="AM49" s="7"/>
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
@@ -4813,8 +5937,6 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="5"/>
       <c r="R51" s="7"/>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
@@ -4822,8 +5944,6 @@
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="8"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="20"/>
       <c r="AA51" s="21"/>
       <c r="AB51" s="20"/>
       <c r="AC51" s="20"/>
@@ -4861,8 +5981,12 @@
       <c r="BI51" s="5"/>
       <c r="BJ51" s="5"/>
       <c r="BK51" s="7"/>
-      <c r="BL51" s="5"/>
-      <c r="BM51" s="5"/>
+      <c r="BL51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM51" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="BN51" s="8"/>
     </row>
     <row r="52" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4885,23 +6009,33 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="5"/>
       <c r="R52" s="7"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
+      <c r="V52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="X52" s="8"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="20"/>
+      <c r="Y52" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z52" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="AA52" s="21"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
       <c r="AD52" s="21"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20"/>
+      <c r="AE52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF52" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="AG52" s="8"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="5"/>
@@ -4933,8 +6067,12 @@
       <c r="BI52" s="3"/>
       <c r="BJ52" s="5"/>
       <c r="BK52" s="7"/>
-      <c r="BL52" s="5"/>
-      <c r="BM52" s="5"/>
+      <c r="BL52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM52" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="BN52" s="8"/>
     </row>
     <row r="53" spans="1:66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,14 +6104,16 @@
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="8"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="20"/>
+      <c r="Y53" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z53" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="AA53" s="21"/>
       <c r="AB53" s="20"/>
       <c r="AC53" s="20"/>
       <c r="AD53" s="21"/>
-      <c r="AE53" s="20"/>
-      <c r="AF53" s="20"/>
       <c r="AG53" s="8"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="5"/>
@@ -5005,8 +6145,12 @@
       <c r="BI53" s="5"/>
       <c r="BJ53" s="5"/>
       <c r="BK53" s="7"/>
-      <c r="BL53" s="5"/>
-      <c r="BM53" s="5"/>
+      <c r="BL53" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM53" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="BN53" s="8"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.25">
@@ -5219,8 +6363,12 @@
       <c r="BI56" s="5"/>
       <c r="BJ56" s="5"/>
       <c r="BK56" s="7"/>
-      <c r="BL56" s="5"/>
-      <c r="BM56" s="5"/>
+      <c r="BL56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM56" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="BN56" s="8"/>
     </row>
     <row r="57" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5249,17 +6397,23 @@
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="7"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
       <c r="X57" s="8"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="20"/>
+      <c r="Y57" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z57" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="AA57" s="21"/>
       <c r="AB57" s="20"/>
       <c r="AC57" s="20"/>
       <c r="AD57" s="21"/>
-      <c r="AE57" s="20"/>
-      <c r="AF57" s="20"/>
+      <c r="AE57" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF57" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="AG57" s="8"/>
       <c r="AH57" s="6"/>
       <c r="AI57" s="5"/>
@@ -5291,8 +6445,12 @@
       <c r="BI57" s="3"/>
       <c r="BJ57" s="5"/>
       <c r="BK57" s="7"/>
-      <c r="BL57" s="5"/>
-      <c r="BM57" s="5"/>
+      <c r="BL57" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM57" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="BN57" s="8"/>
     </row>
     <row r="58" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5324,8 +6482,12 @@
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="8"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="20"/>
+      <c r="Y58" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z58" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="AA58" s="21"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
@@ -5363,7 +6525,6 @@
       <c r="BI58" s="5"/>
       <c r="BJ58" s="5"/>
       <c r="BK58" s="7"/>
-      <c r="BL58" s="5"/>
       <c r="BM58" s="5"/>
       <c r="BN58" s="8"/>
     </row>
@@ -5439,9 +6600,9 @@
       <c r="BM59" s="5"/>
       <c r="BN59" s="8"/>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" ht="75" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -5503,8 +6664,12 @@
       <c r="BI60" s="5"/>
       <c r="BJ60" s="5"/>
       <c r="BK60" s="7"/>
-      <c r="BL60" s="5"/>
-      <c r="BM60" s="5"/>
+      <c r="BL60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM60" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="BN60" s="8"/>
     </row>
     <row r="61" spans="1:66" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6446,12 +7611,12 @@
       <c r="BN73" s="14"/>
     </row>
     <row r="74" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -6582,12 +7747,12 @@
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -6650,12 +7815,12 @@
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -6718,12 +7883,12 @@
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -6783,12 +7948,12 @@
       <c r="BN78" s="5"/>
     </row>
     <row r="79" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -6919,12 +8084,12 @@
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -6987,12 +8152,12 @@
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -7055,12 +8220,12 @@
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -7123,12 +8288,12 @@
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -7624,15 +8789,37 @@
       <c r="BN91" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BL3:BN3"/>
+  <mergeCells count="54">
+    <mergeCell ref="AZ6:BD6"/>
+    <mergeCell ref="AZ7:BD7"/>
+    <mergeCell ref="AZ41:BD41"/>
+    <mergeCell ref="AZ42:BD42"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AZ1:BN1"/>
     <mergeCell ref="BR3:BT3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
@@ -7649,28 +8836,17 @@
     <mergeCell ref="AT2:AV3"/>
     <mergeCell ref="AE2:AG3"/>
     <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BN1"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BL3:BN3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Rozklad_4.xlsx
+++ b/Rozklad_4.xlsx
@@ -1033,26 +1033,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1063,7 +1057,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,20 +1075,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,7 +1362,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1373,10 +1373,10 @@
   <dimension ref="A1:BT91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,268 +1457,268 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="62" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="62" t="s">
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="62" t="s">
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="62" t="s">
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="62" t="s">
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="64"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="62"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="56" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="57" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="56" t="s">
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="57" t="s">
+      <c r="T2" s="64"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="57"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="60" t="s">
+      <c r="W2" s="64"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="56" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="57" t="s">
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60" t="s">
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="56" t="s">
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="57" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="60" t="s">
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="56" t="s">
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="57" t="s">
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="60" t="s">
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="56" t="s">
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="57" t="s">
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="65"/>
+      <c r="BL2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="59"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="72"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="60"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="60" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="57" t="s">
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="56" t="s">
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="57" t="s">
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="58"/>
-      <c r="BL3" s="57" t="s">
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="65"/>
+      <c r="BL3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="59"/>
-      <c r="BO3" s="55"/>
-      <c r="BP3" s="55"/>
-      <c r="BQ3" s="55"/>
-      <c r="BR3" s="55"/>
-      <c r="BS3" s="55"/>
-      <c r="BT3" s="55"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="D4" s="37">
@@ -2148,13 +2148,13 @@
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
       <c r="AY6" s="16"/>
-      <c r="AZ6" s="70" t="s">
+      <c r="AZ6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="71"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
       <c r="BE6" s="21"/>
       <c r="BF6" s="20"/>
       <c r="BG6" s="20"/>
@@ -2254,13 +2254,13 @@
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
       <c r="AY7" s="16"/>
-      <c r="AZ7" s="70" t="s">
+      <c r="AZ7" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="71"/>
-      <c r="BC7" s="71"/>
-      <c r="BD7" s="71"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
       <c r="BE7" s="21"/>
       <c r="BF7" s="20"/>
       <c r="BG7" s="20"/>
@@ -3004,13 +3004,13 @@
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="7"/>
       <c r="M16" s="5" t="s">
         <v>111</v>
@@ -3438,13 +3438,13 @@
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="7"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3788,13 +3788,13 @@
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="7"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3868,11 +3868,11 @@
         <v>189</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="7"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -4629,13 +4629,13 @@
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
       <c r="L35" s="7"/>
       <c r="M35" s="5" t="s">
         <v>83</v>
@@ -4715,13 +4715,13 @@
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
       <c r="L36" s="7"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4921,10 +4921,10 @@
       <c r="AH38" s="6"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="7"/>
-      <c r="AK38" s="72" t="s">
+      <c r="AK38" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="AL38" s="72" t="s">
+      <c r="AL38" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM38" s="7"/>
@@ -4999,10 +4999,10 @@
       <c r="AH39" s="6"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="7"/>
-      <c r="AK39" s="72" t="s">
+      <c r="AK39" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="AL39" s="72" t="s">
+      <c r="AL39" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM39" s="7"/>
@@ -5156,10 +5156,10 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="7"/>
-      <c r="AK41" s="72" t="s">
+      <c r="AK41" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="AL41" s="72" t="s">
+      <c r="AL41" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM41" s="7"/>
@@ -5179,13 +5179,13 @@
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
       <c r="AY41" s="8"/>
-      <c r="AZ41" s="70" t="s">
+      <c r="AZ41" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="BA41" s="71"/>
-      <c r="BB41" s="71"/>
-      <c r="BC41" s="71"/>
-      <c r="BD41" s="71"/>
+      <c r="BA41" s="57"/>
+      <c r="BB41" s="57"/>
+      <c r="BC41" s="57"/>
+      <c r="BD41" s="57"/>
       <c r="BE41" s="7"/>
       <c r="BF41" s="5"/>
       <c r="BG41" s="5"/>
@@ -5256,10 +5256,10 @@
       <c r="AH42" s="6"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="7"/>
-      <c r="AK42" s="72" t="s">
+      <c r="AK42" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="AL42" s="72" t="s">
+      <c r="AL42" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM42" s="7"/>
@@ -5273,13 +5273,13 @@
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
       <c r="AY42" s="8"/>
-      <c r="AZ42" s="70" t="s">
+      <c r="AZ42" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="BA42" s="71"/>
-      <c r="BB42" s="71"/>
-      <c r="BC42" s="71"/>
-      <c r="BD42" s="71"/>
+      <c r="BA42" s="57"/>
+      <c r="BB42" s="57"/>
+      <c r="BC42" s="57"/>
+      <c r="BD42" s="57"/>
       <c r="BE42" s="21"/>
       <c r="BF42" s="5"/>
       <c r="BG42" s="5"/>
@@ -5332,10 +5332,10 @@
       <c r="AH43" s="48"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="7"/>
-      <c r="AK43" s="72" t="s">
+      <c r="AK43" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="AL43" s="72" t="s">
+      <c r="AL43" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM43" s="7"/>
@@ -5408,10 +5408,10 @@
       <c r="AH44" s="48"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="7"/>
-      <c r="AK44" s="72" t="s">
+      <c r="AK44" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="AL44" s="72" t="s">
+      <c r="AL44" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM44" s="7"/>
@@ -5553,8 +5553,12 @@
         <v>143</v>
       </c>
       <c r="AA46" s="21"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
+      <c r="AB46" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC46" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="AD46" s="21"/>
       <c r="AE46" s="20"/>
       <c r="AF46" s="20"/>
@@ -5562,10 +5566,10 @@
       <c r="AH46" s="6"/>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="7"/>
-      <c r="AK46" s="72" t="s">
+      <c r="AK46" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="AL46" s="72" t="s">
+      <c r="AL46" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM46" s="7"/>
@@ -5639,8 +5643,12 @@
         <v>143</v>
       </c>
       <c r="AA47" s="21"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
+      <c r="AB47" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC47" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="AD47" s="21"/>
       <c r="AE47" s="20" t="s">
         <v>162</v>
@@ -5652,10 +5660,10 @@
       <c r="AH47" s="6"/>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="7"/>
-      <c r="AK47" s="72" t="s">
+      <c r="AK47" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="AL47" s="72" t="s">
+      <c r="AL47" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM47" s="7"/>
@@ -5715,12 +5723,6 @@
       <c r="W48" s="5"/>
       <c r="X48" s="8"/>
       <c r="AA48" s="21"/>
-      <c r="AB48" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC48" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="AD48" s="21"/>
       <c r="AE48" s="20" t="s">
         <v>164</v>
@@ -5732,10 +5734,10 @@
       <c r="AH48" s="6"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="7"/>
-      <c r="AK48" s="72" t="s">
+      <c r="AK48" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="AL48" s="72" t="s">
+      <c r="AL48" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM48" s="7"/>
@@ -5799,12 +5801,6 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="21"/>
-      <c r="AB49" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC49" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="AD49" s="21"/>
       <c r="AE49" s="20"/>
       <c r="AF49" s="20"/>
@@ -5812,10 +5808,10 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="7"/>
-      <c r="AK49" s="72" t="s">
+      <c r="AK49" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="AL49" s="72" t="s">
+      <c r="AL49" s="55" t="s">
         <v>173</v>
       </c>
       <c r="AM49" s="7"/>
@@ -7611,12 +7607,12 @@
       <c r="BN73" s="14"/>
     </row>
     <row r="74" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -7747,12 +7743,12 @@
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -7815,12 +7811,12 @@
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -7883,12 +7879,12 @@
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -7948,12 +7944,12 @@
       <c r="BN78" s="5"/>
     </row>
     <row r="79" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="69"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="69"/>
-      <c r="I79" s="69"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -8084,12 +8080,12 @@
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -8152,12 +8148,12 @@
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -8220,12 +8216,12 @@
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="69"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -8288,12 +8284,12 @@
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -8790,36 +8786,14 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AZ6:BD6"/>
-    <mergeCell ref="AZ7:BD7"/>
-    <mergeCell ref="AZ41:BD41"/>
-    <mergeCell ref="AZ42:BD42"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BN1"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="BR3:BT3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
@@ -8836,14 +8810,36 @@
     <mergeCell ref="AT2:AV3"/>
     <mergeCell ref="AE2:AG3"/>
     <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AZ1:BN1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="AZ6:BD6"/>
+    <mergeCell ref="AZ7:BD7"/>
+    <mergeCell ref="AZ41:BD41"/>
+    <mergeCell ref="AZ42:BD42"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_4.xlsx
+++ b/Rozklad_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20730" windowHeight="10980"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="20730" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="V42" authorId="0">
+    <comment ref="V41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL60" authorId="0">
+    <comment ref="AW59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,12 +73,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="AW60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>на 12 00</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="241">
   <si>
     <t>І</t>
   </si>
@@ -134,9 +147,6 @@
     <t>ІV курс</t>
   </si>
   <si>
-    <t>V курс</t>
-  </si>
-  <si>
     <t>VI курс</t>
   </si>
   <si>
@@ -179,9 +189,6 @@
     <t>Магістри</t>
   </si>
   <si>
-    <t>Спеціалістр</t>
-  </si>
-  <si>
     <t>Магістр</t>
   </si>
   <si>
@@ -197,9 +204,6 @@
     <t>13:35 - 15:00</t>
   </si>
   <si>
-    <t>на 10 годину 3 пари</t>
-  </si>
-  <si>
     <t>Субота, 13 травня</t>
   </si>
   <si>
@@ -527,9 +531,6 @@
     <t>доц. Славік Р.В.</t>
   </si>
   <si>
-    <t>Основи суспільної та соціальної географії (іспит)</t>
-  </si>
-  <si>
     <t>доц. Микита М.М.</t>
   </si>
   <si>
@@ -644,9 +645,6 @@
     <t>на 10 00</t>
   </si>
   <si>
-    <t>Фізика</t>
-  </si>
-  <si>
     <t>доц. Шароді І.С.</t>
   </si>
   <si>
@@ -660,6 +658,162 @@
   </si>
   <si>
     <t>Фізика з основами геофізики</t>
+  </si>
+  <si>
+    <t>Геологія і геоморфологія</t>
+  </si>
+  <si>
+    <t>Геологія і геоморфологія (залік)</t>
+  </si>
+  <si>
+    <t>Основи суспільної та соціальної географії (залік)</t>
+  </si>
+  <si>
+    <t>Грунтознавство з основами географії грунтів, доц. Салюк М.Р.</t>
+  </si>
+  <si>
+    <t>Грунтознавство з основами географії грунтів (іспит), доц. Салюк М.Р.</t>
+  </si>
+  <si>
+    <t>доц. Радиш І.П.</t>
+  </si>
+  <si>
+    <t>Інформатика та  програмування геозадач (іспит)</t>
+  </si>
+  <si>
+    <t>ас. Ваш Я.І.</t>
+  </si>
+  <si>
+    <t>Інженерна графіка в землеустрої (залік)</t>
+  </si>
+  <si>
+    <t>Топографія</t>
+  </si>
+  <si>
+    <t>ст.викл. Стасюк В.І.</t>
+  </si>
+  <si>
+    <t>Топографія (залік)</t>
+  </si>
+  <si>
+    <t>Ботаніка (іспит)</t>
+  </si>
+  <si>
+    <t>Інформатика, сучасні інформаційні технології та системи</t>
+  </si>
+  <si>
+    <t>Інформатика, сучасні інформаційні технології та системи (іспит)</t>
+  </si>
+  <si>
+    <t>ст. викл. Приходько М.В.</t>
+  </si>
+  <si>
+    <t>Методологія і організація наукових досліджень, проф. Поп С.С.</t>
+  </si>
+  <si>
+    <t>Географія Карпатського регіону</t>
+  </si>
+  <si>
+    <t>Географія Карпатського регіону (іспит)</t>
+  </si>
+  <si>
+    <t>Фізична географія материків і океанів, викл. Корчинська Ж.М.</t>
+  </si>
+  <si>
+    <t>Фізична географія материків і океанів (курсова робота), викл. Корчинська Ж.М.</t>
+  </si>
+  <si>
+    <t>Фізична географія материків і океанів (іспит), викл. Корчинська Ж.М.</t>
+  </si>
+  <si>
+    <t>Охорона праці в галузі, ст. викл. Приходько М.В.</t>
+  </si>
+  <si>
+    <t>Охорона праці в галузі (залік), ст. викл. Приходько М.В.</t>
+  </si>
+  <si>
+    <t>Методологія і організація наукових досліджень (залік), проф. Поп С.С.</t>
+  </si>
+  <si>
+    <t>викл. Ляшин Я.Є.</t>
+  </si>
+  <si>
+    <t>Психологія (іспит)</t>
+  </si>
+  <si>
+    <t>Соціально-економічна статистика</t>
+  </si>
+  <si>
+    <t>Психологія управління</t>
+  </si>
+  <si>
+    <t>доц. Керестень І.С.</t>
+  </si>
+  <si>
+    <t>Психологія управління (залік)</t>
+  </si>
+  <si>
+    <t>Управління лісогосподарським виробництвом</t>
+  </si>
+  <si>
+    <t>Управління лісогосподарським виробництвом (курсовий проект)</t>
+  </si>
+  <si>
+    <t>Управління лісогосподарським виробництвом (іспит)</t>
+  </si>
+  <si>
+    <t>доц. Кічура В.П.</t>
+  </si>
+  <si>
+    <t>ст. викл. Жулканич Б.М.</t>
+  </si>
+  <si>
+    <t>Політична географія</t>
+  </si>
+  <si>
+    <t>Соціально-економічна статистика (іспит)</t>
+  </si>
+  <si>
+    <t>Географія промисловості</t>
+  </si>
+  <si>
+    <t>ст. викл. Антонюк О.С.</t>
+  </si>
+  <si>
+    <t>Політична географія (залік)</t>
+  </si>
+  <si>
+    <t>Інформаційні технології в географії та основи географічного моделювання</t>
+  </si>
+  <si>
+    <t>ст. викл. Озимко Р. Р.</t>
+  </si>
+  <si>
+    <t>Інформаційні технології в географії та основи географічного моделювання (залік)</t>
+  </si>
+  <si>
+    <t>Географія промисловості (залік)</t>
+  </si>
+  <si>
+    <t>504а</t>
+  </si>
+  <si>
+    <t>Фізика, доц Шароді І.С.</t>
+  </si>
+  <si>
+    <t>514а</t>
+  </si>
+  <si>
+    <t>Хім фак.</t>
+  </si>
+  <si>
+    <t>проф. Поторій М.В.</t>
+  </si>
+  <si>
+    <t>504б</t>
+  </si>
+  <si>
+    <t>квант</t>
   </si>
 </sst>
 </file>
@@ -701,18 +855,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -871,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -957,9 +1105,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -979,27 +1124,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,17 +1157,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1057,15 +1205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,20 +1214,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,7 +1504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1370,13 +1512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT91"/>
+  <dimension ref="A1:BN90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1595,7 @@
     <col min="70" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1514,813 +1656,691 @@
       <c r="AV1" s="61"/>
       <c r="AW1" s="61"/>
       <c r="AX1" s="61"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="60" t="s">
-        <v>19</v>
-      </c>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
       <c r="BA1" s="61"/>
       <c r="BB1" s="61"/>
       <c r="BC1" s="61"/>
       <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="61"/>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="62"/>
-    </row>
-    <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE1" s="62"/>
+    </row>
+    <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="71" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="71" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="64" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="63" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="53"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="64" t="s">
+      <c r="W2" s="53"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="64"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="63" t="s">
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="55"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="D3" s="56"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="64"/>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="BM2" s="64"/>
-      <c r="BN2" s="72"/>
-    </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="63" t="s">
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="64" t="s">
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="BG3" s="64"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="BJ3" s="64"/>
-      <c r="BK3" s="65"/>
-      <c r="BL3" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="BM3" s="64"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="70"/>
-      <c r="BP3" s="70"/>
-      <c r="BQ3" s="70"/>
-      <c r="BR3" s="70"/>
-      <c r="BS3" s="70"/>
-      <c r="BT3" s="70"/>
-    </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D4" s="37">
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="51"/>
+    </row>
+    <row r="4" spans="1:57" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="38">
-        <v>19</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41">
+      <c r="G4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="38">
-        <v>19</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41">
+      <c r="J4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="38">
-        <v>21</v>
-      </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="38">
+      <c r="M4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="38">
-        <v>21</v>
-      </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="37">
+      <c r="P4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="38">
-        <v>21</v>
-      </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="41">
+      <c r="S4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="38">
-        <v>21</v>
-      </c>
-      <c r="U4" s="40"/>
-      <c r="V4" s="38">
+      <c r="V4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="38">
-        <v>24</v>
-      </c>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="37">
+      <c r="Y4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" s="38">
-        <v>24</v>
-      </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="41">
+      <c r="AB4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" s="38">
-        <v>21</v>
-      </c>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="38">
+      <c r="AE4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="38">
-        <v>24</v>
-      </c>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="37">
+      <c r="AH4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="38">
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="41">
+      <c r="AK4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AL4" s="38">
-        <v>21</v>
-      </c>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="38">
+      <c r="AN4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AO4" s="38">
-        <v>24</v>
-      </c>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="37">
+      <c r="AQ4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="BA4" s="38">
-        <v>24</v>
-      </c>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="38">
+      <c r="AT4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="BD4" s="38">
-        <v>24</v>
-      </c>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="40"/>
-      <c r="BL4" s="38">
+      <c r="AW4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="BM4" s="38">
-        <v>24</v>
-      </c>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="43"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="43"/>
-      <c r="BR4" s="43"/>
-      <c r="BS4" s="43"/>
-      <c r="BT4" s="43"/>
-    </row>
-    <row r="5" spans="1:72" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+    </row>
+    <row r="5" spans="1:57" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="V5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AY5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="BE5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF5" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BI5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="BK5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="BM5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="BN5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-    </row>
-    <row r="6" spans="1:72" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="34">
+        <v>501</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="34">
+        <v>508</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="16">
+        <v>339</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>511</v>
+      </c>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG5" s="36">
+        <v>305</v>
+      </c>
+      <c r="AH5" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI5" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ5" s="34">
+        <v>514</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN5" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO5" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP5" s="16">
+        <v>307</v>
+      </c>
+      <c r="AQ5" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="67"/>
+      <c r="AV5" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="8"/>
+    </row>
+    <row r="6" spans="1:57" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="34">
+        <v>501</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="U6" s="34">
+        <v>508</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X6" s="16"/>
+      <c r="X6" s="50">
+        <v>339</v>
+      </c>
       <c r="Y6" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA6" s="21"/>
+        <v>140</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>511</v>
+      </c>
       <c r="AD6" s="21"/>
-      <c r="AE6" s="2" t="s">
-        <v>157</v>
+      <c r="AE6" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="AF6" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI6" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ6" s="35"/>
+        <v>116</v>
+      </c>
+      <c r="AG6" s="36">
+        <v>305</v>
+      </c>
+      <c r="AH6" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI6" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ6" s="34">
+        <v>514</v>
+      </c>
       <c r="AK6" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO6" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="35"/>
+        <v>166</v>
+      </c>
+      <c r="AM6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN6" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO6" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP6" s="16">
+        <v>307</v>
+      </c>
+      <c r="AQ6" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="20"/>
-      <c r="BH6" s="20"/>
-      <c r="BI6" s="20"/>
-      <c r="BJ6" s="20"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="8"/>
-    </row>
-    <row r="7" spans="1:72" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AY6" s="8"/>
+    </row>
+    <row r="7" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="21">
+        <v>505</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="P7" s="19" t="s">
         <v>93</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>143</v>
+        <v>91</v>
+      </c>
+      <c r="R7" s="34">
+        <v>501</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="X7" s="50">
+        <v>339</v>
       </c>
       <c r="AA7" s="21"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
       <c r="AD7" s="21"/>
-      <c r="AE7" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF7" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
       <c r="AG7" s="16"/>
-      <c r="AH7" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI7" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO7" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="34"/>
-      <c r="AS7" s="35"/>
+      <c r="AH7" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI7" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ7" s="34">
+        <v>514</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN7" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP7" s="16">
+        <v>307</v>
+      </c>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="20"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="20"/>
-      <c r="BI7" s="20"/>
-      <c r="BJ7" s="20"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="8"/>
-    </row>
-    <row r="8" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY7" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="21">
+        <v>505</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="R8" s="21"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="W8" s="20" t="s">
+      <c r="O8" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="W8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X8" s="50">
+        <v>339</v>
+      </c>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="20"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
@@ -2328,91 +2348,71 @@
       <c r="AE8" s="20"/>
       <c r="AF8" s="20"/>
       <c r="AG8" s="16"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="35"/>
+      <c r="AH8" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI8" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ8" s="34">
+        <v>514</v>
+      </c>
       <c r="AK8" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO8" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="48"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="20"/>
-      <c r="BG8" s="20"/>
-      <c r="BH8" s="20"/>
-      <c r="BI8" s="20"/>
-      <c r="BJ8" s="20"/>
-      <c r="BK8" s="21"/>
-      <c r="BL8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN8" s="8"/>
-    </row>
-    <row r="9" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="16"/>
+        <v>130</v>
+      </c>
+      <c r="AM8" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN8" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP8" s="16">
+        <v>307</v>
+      </c>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="8"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="21"/>
@@ -2421,347 +2421,358 @@
       <c r="AD9" s="21"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="20"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20"/>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="BM9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN9" s="8"/>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="7"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="8"/>
+    </row>
+    <row r="10" spans="1:57" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="34">
+        <v>501</v>
+      </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="7"/>
+      <c r="V10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="50">
+        <v>339</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>509</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF10" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG10" s="36">
+        <v>305</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK10" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL10" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>307</v>
+      </c>
+      <c r="AQ10" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="7">
+        <v>515</v>
+      </c>
       <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
       <c r="AY10" s="8"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="5"/>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="5"/>
-      <c r="BI10" s="5"/>
-      <c r="BJ10" s="5"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="5"/>
-      <c r="BM10" s="5"/>
-      <c r="BN10" s="8"/>
-    </row>
-    <row r="11" spans="1:72" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="11" spans="1:57" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="P11" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="R11" s="34">
+        <v>501</v>
+      </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="7"/>
       <c r="V11" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>148</v>
+        <v>57</v>
+      </c>
+      <c r="X11" s="50">
+        <v>339</v>
       </c>
       <c r="AA11" s="21"/>
       <c r="AB11" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD11" s="21"/>
+        <v>133</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>509</v>
+      </c>
       <c r="AE11" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG11" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="AG11" s="36">
+        <v>305</v>
+      </c>
       <c r="AH11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK11" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL11" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="5" t="s">
-        <v>178</v>
+      <c r="AL11" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM11" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN11" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="6"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="20"/>
-      <c r="BG11" s="20"/>
-      <c r="BH11" s="20"/>
-      <c r="BI11" s="20"/>
-      <c r="BJ11" s="20"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="5"/>
-      <c r="BM11" s="5"/>
-      <c r="BN11" s="8"/>
-    </row>
-    <row r="12" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>307</v>
+      </c>
+      <c r="AQ11" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="7">
+        <v>515</v>
+      </c>
+      <c r="AW11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="19" t="s">
         <v>93</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="R12" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="R12" s="34">
+        <v>501</v>
+      </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="X12" s="8"/>
-      <c r="Y12" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="AA12" s="21"/>
-      <c r="AB12" s="2" t="s">
+      <c r="AB12" s="20" t="s">
         <v>135</v>
       </c>
       <c r="AC12" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="2" t="s">
-        <v>157</v>
+      <c r="AD12" s="21">
+        <v>509</v>
+      </c>
+      <c r="AE12" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG12" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="AG12" s="36">
+        <v>305</v>
+      </c>
       <c r="AH12" s="6" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL12" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO12" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK12" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL12" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
       <c r="AP12" s="8"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="7"/>
+      <c r="AQ12" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="21">
+        <v>515</v>
+      </c>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="8"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="20"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="20"/>
-      <c r="BK12" s="21"/>
-      <c r="BL12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN12" s="8"/>
-    </row>
-    <row r="13" spans="1:72" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -2775,96 +2786,93 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="7"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="7"/>
       <c r="X13" s="8"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="20"/>
       <c r="AA13" s="21"/>
-      <c r="AB13" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC13" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="21"/>
-      <c r="AE13" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF13" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
       <c r="AG13" s="8"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL13" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM13" s="7"/>
+      <c r="AH13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK13" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL13" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM13" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="5"/>
+      <c r="AQ13" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="21">
+        <v>515</v>
+      </c>
+      <c r="AW13" s="3"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="8"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
-      <c r="BJ13" s="5"/>
-      <c r="BK13" s="7"/>
-      <c r="BL13" s="5"/>
-      <c r="BM13" s="5"/>
-      <c r="BN13" s="8"/>
-    </row>
-    <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+    </row>
+    <row r="14" spans="1:57" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="8"/>
+      <c r="M14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="8">
+        <v>216</v>
+      </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="7"/>
+      <c r="S14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" s="34">
+        <v>508</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="20"/>
@@ -2878,59 +2886,50 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL14" s="34" t="s">
-        <v>166</v>
-      </c>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="8"/>
       <c r="AQ14" s="6"/>
       <c r="AR14" s="5"/>
-      <c r="AS14" s="7"/>
+      <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
       <c r="AU14" s="5"/>
       <c r="AV14" s="7"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="8"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="7"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="5"/>
-      <c r="BN14" s="8"/>
-    </row>
-    <row r="15" spans="1:72" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>37</v>
+    </row>
+    <row r="15" spans="1:57" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="7"/>
+      <c r="G15" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="M15" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="O15" s="8">
         <v>216</v>
@@ -2939,15 +2938,23 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="7"/>
       <c r="S15" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U15" s="7"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="U15" s="34">
+        <v>508</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="50">
+        <v>339</v>
+      </c>
       <c r="Y15" s="19"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="21"/>
@@ -2957,242 +2964,273 @@
       <c r="AE15" s="20"/>
       <c r="AF15" s="20"/>
       <c r="AG15" s="8"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="7"/>
+      <c r="AH15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM15" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="6"/>
       <c r="AR15" s="5"/>
-      <c r="AS15" s="7"/>
+      <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
       <c r="AU15" s="5"/>
       <c r="AV15" s="7"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="6"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="7"/>
-      <c r="BL15" s="5"/>
-      <c r="BM15" s="5"/>
-      <c r="BN15" s="8"/>
-    </row>
-    <row r="16" spans="1:72" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="AW15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY15" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" s="8">
-        <v>216</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="7"/>
+      <c r="D16" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="7">
+        <v>505</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="R16" s="34">
+        <v>501</v>
+      </c>
       <c r="S16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U16" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="U16" s="34">
+        <v>508</v>
+      </c>
       <c r="V16" s="5" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="21"/>
+        <v>114</v>
+      </c>
+      <c r="X16" s="50">
+        <v>339</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC16" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>509</v>
+      </c>
       <c r="AE16" s="20"/>
       <c r="AF16" s="20"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="6" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ16" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>514</v>
+      </c>
       <c r="AK16" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="6"/>
-      <c r="BA16" s="5"/>
-      <c r="BB16" s="5"/>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="5"/>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="5"/>
-      <c r="BG16" s="5"/>
-      <c r="BH16" s="5"/>
-      <c r="BI16" s="5"/>
-      <c r="BJ16" s="5"/>
-      <c r="BK16" s="7"/>
-      <c r="BL16" s="5"/>
-      <c r="BM16" s="5"/>
-      <c r="BN16" s="8"/>
-    </row>
-    <row r="17" spans="1:66" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="AM16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN16" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP16" s="8">
+        <v>307</v>
+      </c>
+      <c r="AQ16" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR16" s="59"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="59"/>
+      <c r="AU16" s="59"/>
+      <c r="AV16" s="7">
+        <v>515</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="7"/>
+      <c r="D17" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="7">
+        <v>505</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="7"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="23"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
       <c r="U17" s="7"/>
       <c r="V17" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="X17" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="X17" s="50">
+        <v>339</v>
+      </c>
       <c r="Y17" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB17" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="AC17" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO17" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>509</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF17" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG17" s="36">
+        <v>305</v>
+      </c>
+      <c r="AH17" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI17" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ17" s="38">
+        <v>514</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
       <c r="AP17" s="8"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
+      <c r="AQ17" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR17" s="59"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="59"/>
+      <c r="AV17" s="7">
+        <v>515</v>
+      </c>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
       <c r="AY17" s="8"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="7"/>
-      <c r="BF17" s="5"/>
-      <c r="BG17" s="5"/>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="20"/>
-      <c r="BK17" s="7"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="8"/>
-    </row>
-    <row r="18" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:51" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -3215,79 +3253,52 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC18" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="Y18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
       <c r="AD18" s="21"/>
       <c r="AE18" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AF18" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="AG18" s="36">
+        <v>305</v>
+      </c>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="8"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="7"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
       <c r="AV18" s="7"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="8"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="5"/>
-      <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="5"/>
-      <c r="BG18" s="5"/>
-      <c r="BH18" s="5"/>
-      <c r="BI18" s="5"/>
-      <c r="BJ18" s="20"/>
-      <c r="BK18" s="7"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="8"/>
-    </row>
-    <row r="19" spans="1:66" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="19" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
@@ -3316,75 +3327,78 @@
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="21"/>
-      <c r="AE19" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF19" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="7"/>
+      <c r="AM19" s="34"/>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="8"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="5"/>
-      <c r="AS19" s="7"/>
+      <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
       <c r="AU19" s="5"/>
       <c r="AV19" s="7"/>
-      <c r="AW19" s="3"/>
+      <c r="AW19" s="5"/>
       <c r="AX19" s="5"/>
       <c r="AY19" s="8"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="5"/>
-      <c r="BG19" s="5"/>
-      <c r="BH19" s="5"/>
-      <c r="BI19" s="5"/>
-      <c r="BJ19" s="5"/>
-      <c r="BK19" s="7"/>
-      <c r="BL19" s="5"/>
-      <c r="BM19" s="5"/>
-      <c r="BN19" s="8"/>
-    </row>
-    <row r="20" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:51" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="7"/>
+      <c r="G20" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="7"/>
+      <c r="P20" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="34">
+        <v>501</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="7"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="21"/>
+      <c r="Y20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>511</v>
+      </c>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
       <c r="AD20" s="21"/>
@@ -3394,224 +3408,290 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="35"/>
+      <c r="AK20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM20" s="34" t="s">
+        <v>239</v>
+      </c>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="8"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="5"/>
-      <c r="AS20" s="7"/>
+      <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
       <c r="AV20" s="7"/>
       <c r="AW20" s="5"/>
       <c r="AX20" s="5"/>
       <c r="AY20" s="8"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="5"/>
-      <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="7"/>
-      <c r="BF20" s="5"/>
-      <c r="BG20" s="5"/>
-      <c r="BH20" s="5"/>
-      <c r="BI20" s="5"/>
-      <c r="BJ20" s="5"/>
-      <c r="BK20" s="7"/>
-      <c r="BL20" s="5"/>
-      <c r="BM20" s="5"/>
-      <c r="BN20" s="8"/>
-    </row>
-    <row r="21" spans="1:66" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="21" spans="1:51" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="8"/>
+      <c r="D21" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="21">
+        <v>505</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" s="2">
+        <v>503</v>
+      </c>
       <c r="P21" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="8"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="R21" s="34">
+        <v>501</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="U21" s="34">
+        <v>508</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="X21" s="50">
+        <v>339</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC21" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>509</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF21" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG21" s="36">
+        <v>305</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>514</v>
+      </c>
       <c r="AK21" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AL21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="AM21" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP21" s="8">
+        <v>307</v>
+      </c>
+      <c r="AQ21" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="59"/>
       <c r="AV21" s="7"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="5"/>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="5"/>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="5"/>
-      <c r="BG21" s="5"/>
-      <c r="BH21" s="5"/>
-      <c r="BI21" s="5"/>
-      <c r="BJ21" s="5"/>
-      <c r="BK21" s="7"/>
-      <c r="BL21" s="5"/>
-      <c r="BM21" s="5"/>
-      <c r="BN21" s="8"/>
-    </row>
-    <row r="22" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY21" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
+      <c r="D22" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="21">
+        <v>505</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="7"/>
-      <c r="P22" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="M22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="2">
+        <v>503</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="5"/>
       <c r="R22" s="7"/>
       <c r="S22" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="U22" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="U22" s="34">
+        <v>508</v>
+      </c>
       <c r="V22" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="X22" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="X22" s="50">
+        <v>339</v>
+      </c>
       <c r="Y22" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC22" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>509</v>
+      </c>
+      <c r="AE22" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="AF22" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="AG22" s="36">
+        <v>305</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI22" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>514</v>
+      </c>
       <c r="AK22" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AL22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM22" s="35"/>
+        <v>85</v>
+      </c>
+      <c r="AM22" s="34" t="s">
+        <v>239</v>
+      </c>
       <c r="AN22" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AO22" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="AP22" s="8">
+        <v>307</v>
+      </c>
+      <c r="AQ22" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR22" s="59"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="59"/>
+      <c r="AU22" s="59"/>
       <c r="AV22" s="7"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-      <c r="BE22" s="7"/>
-      <c r="BF22" s="5"/>
-      <c r="BG22" s="5"/>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
-      <c r="BJ22" s="5"/>
-      <c r="BK22" s="7"/>
-      <c r="BL22" s="5"/>
-      <c r="BM22" s="5"/>
-      <c r="BN22" s="8"/>
-    </row>
-    <row r="23" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW22" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX22" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY22" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -3625,103 +3705,72 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="7"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="T23" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="20"/>
       <c r="AA23" s="21"/>
-      <c r="AB23" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="AD23" s="21"/>
-      <c r="AE23" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF23" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="AF23" s="5"/>
       <c r="AG23" s="8"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO23" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="AH23" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI23" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM23" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="33"/>
       <c r="AP23" s="8"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="5"/>
-      <c r="AS23" s="7"/>
+      <c r="AS23" s="5"/>
       <c r="AT23" s="5"/>
       <c r="AU23" s="5"/>
       <c r="AV23" s="7"/>
       <c r="AW23" s="5"/>
       <c r="AX23" s="5"/>
       <c r="AY23" s="8"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="7"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
-      <c r="BK23" s="7"/>
-      <c r="BL23" s="5"/>
-      <c r="BM23" s="5"/>
-      <c r="BN23" s="8"/>
-    </row>
-    <row r="24" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="24" spans="1:51" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="7"/>
+      <c r="G24" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="8"/>
@@ -3737,65 +3786,62 @@
       <c r="Y24" s="19"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="21"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
       <c r="AD24" s="21"/>
-      <c r="AF24" s="5"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="7"/>
-      <c r="AK24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL24" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM24" s="46"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="7"/>
       <c r="AN24" s="5"/>
-      <c r="AO24" s="34"/>
+      <c r="AO24" s="5"/>
       <c r="AP24" s="8"/>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="5"/>
-      <c r="AS24" s="7"/>
+      <c r="AS24" s="5"/>
       <c r="AT24" s="5"/>
-      <c r="AU24" s="3"/>
+      <c r="AU24" s="5"/>
       <c r="AV24" s="7"/>
       <c r="AW24" s="5"/>
       <c r="AX24" s="5"/>
       <c r="AY24" s="8"/>
-      <c r="AZ24" s="6"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="7"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
-      <c r="BJ24" s="5"/>
-      <c r="BK24" s="7"/>
-      <c r="BL24" s="5"/>
-      <c r="BM24" s="5"/>
-      <c r="BN24" s="8"/>
-    </row>
-    <row r="25" spans="1:66" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="7"/>
+    </row>
+    <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="69"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="8"/>
@@ -3817,9 +3863,15 @@
       <c r="AE25" s="20"/>
       <c r="AF25" s="20"/>
       <c r="AG25" s="8"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="7"/>
+      <c r="AH25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>514</v>
+      </c>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="7"/>
@@ -3828,115 +3880,147 @@
       <c r="AP25" s="8"/>
       <c r="AQ25" s="6"/>
       <c r="AR25" s="5"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="7"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV25" s="7">
+        <v>515</v>
+      </c>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="8"/>
-      <c r="AZ25" s="6"/>
-      <c r="BA25" s="5"/>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="7"/>
-      <c r="BF25" s="5"/>
-      <c r="BG25" s="5"/>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="5"/>
-      <c r="BJ25" s="5"/>
-      <c r="BK25" s="7"/>
-      <c r="BL25" s="5"/>
-      <c r="BM25" s="5"/>
-      <c r="BN25" s="8"/>
-    </row>
-    <row r="26" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
+    </row>
+    <row r="26" spans="1:51" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="8"/>
+      <c r="M26" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" s="8">
+        <v>503</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26" s="34">
+        <v>501</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="U26" s="34">
+        <v>508</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X26" s="50">
+        <v>339</v>
+      </c>
+      <c r="Y26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB26" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC26" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD26" s="21">
+        <v>509</v>
+      </c>
+      <c r="AE26" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>305</v>
+      </c>
       <c r="AH26" s="6" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="8"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="AJ26" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK26" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL26" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM26" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP26" s="8">
+        <v>307</v>
+      </c>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV26" s="7">
+        <v>515</v>
+      </c>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
       <c r="AY26" s="8"/>
-      <c r="AZ26" s="6"/>
-      <c r="BA26" s="5"/>
-      <c r="BB26" s="5"/>
-      <c r="BC26" s="5"/>
-      <c r="BD26" s="5"/>
-      <c r="BE26" s="7"/>
-      <c r="BF26" s="5"/>
-      <c r="BG26" s="5"/>
-      <c r="BH26" s="5"/>
-      <c r="BI26" s="5"/>
-      <c r="BJ26" s="5"/>
-      <c r="BK26" s="7"/>
-      <c r="BL26" s="5"/>
-      <c r="BM26" s="5"/>
-      <c r="BN26" s="8"/>
-    </row>
-    <row r="27" spans="1:66" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>21</v>
@@ -3954,99 +4038,110 @@
       <c r="N27" s="5"/>
       <c r="O27" s="8"/>
       <c r="P27" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" s="34">
+        <v>501</v>
+      </c>
+      <c r="S27" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="Q27" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="R27" s="7"/>
-      <c r="S27" s="20" t="s">
-        <v>104</v>
-      </c>
       <c r="T27" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="U27" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="U27" s="34">
+        <v>508</v>
+      </c>
       <c r="V27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="X27" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="X27" s="50">
+        <v>339</v>
+      </c>
       <c r="Y27" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA27" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>511</v>
+      </c>
       <c r="AB27" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC27" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD27" s="21"/>
+        <v>136</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>509</v>
+      </c>
       <c r="AE27" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF27" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>305</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ27" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK27" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL27" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM27" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AF27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL27" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO27" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="7"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="7"/>
+      <c r="AP27" s="8">
+        <v>307</v>
+      </c>
+      <c r="AQ27" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="59"/>
+      <c r="AV27" s="7">
+        <v>515</v>
+      </c>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
       <c r="AY27" s="8"/>
-      <c r="AZ27" s="48"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
-      <c r="BC27" s="3"/>
-      <c r="BD27" s="3"/>
-      <c r="BE27" s="7"/>
-      <c r="BF27" s="5"/>
-      <c r="BG27" s="5"/>
-      <c r="BH27" s="5"/>
-      <c r="BI27" s="5"/>
-      <c r="BJ27" s="5"/>
-      <c r="BK27" s="7"/>
-      <c r="BL27" s="5"/>
-      <c r="BM27" s="5"/>
-      <c r="BN27" s="8"/>
-    </row>
-    <row r="28" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4057,104 +4152,51 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="5"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="T28" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z28" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="20"/>
       <c r="AA28" s="21"/>
-      <c r="AB28" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC28" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="21"/>
-      <c r="AE28" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF28" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
       <c r="AG28" s="8"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="34"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="5"/>
       <c r="AJ28" s="7"/>
-      <c r="AK28" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL28" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO28" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
       <c r="AP28" s="8"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="7"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="33"/>
       <c r="AV28" s="7"/>
       <c r="AW28" s="5"/>
       <c r="AX28" s="5"/>
       <c r="AY28" s="8"/>
-      <c r="AZ28" s="6"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="7"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
-      <c r="BK28" s="7"/>
-      <c r="BL28" s="5"/>
-      <c r="BM28" s="5"/>
-      <c r="BN28" s="8"/>
-    </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="29" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="71"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="7"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="7"/>
@@ -4167,8 +4209,8 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="20"/>
@@ -4190,39 +4232,30 @@
       <c r="AP29" s="8"/>
       <c r="AQ29" s="6"/>
       <c r="AR29" s="5"/>
-      <c r="AS29" s="7"/>
+      <c r="AS29" s="5"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
       <c r="AV29" s="7"/>
-      <c r="AW29" s="5"/>
+      <c r="AW29" s="3"/>
       <c r="AX29" s="5"/>
       <c r="AY29" s="8"/>
-      <c r="AZ29" s="48"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="34"/>
-      <c r="BE29" s="7"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
-      <c r="BK29" s="7"/>
-      <c r="BL29" s="5"/>
-      <c r="BM29" s="5"/>
-      <c r="BN29" s="8"/>
-    </row>
-    <row r="30" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="29" t="s">
-        <v>39</v>
+    </row>
+    <row r="30" spans="1:51" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="7"/>
@@ -4230,149 +4263,177 @@
       <c r="N30" s="5"/>
       <c r="O30" s="8"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="35"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
       <c r="U30" s="7"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="8"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="21"/>
+      <c r="Y30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA30" s="21">
+        <v>511</v>
+      </c>
       <c r="AB30" s="20"/>
       <c r="AC30" s="20"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="20"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="8"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="7"/>
+      <c r="AH30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ30" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM30" s="34" t="s">
+        <v>239</v>
+      </c>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="8"/>
       <c r="AQ30" s="6"/>
       <c r="AR30" s="5"/>
-      <c r="AS30" s="7"/>
+      <c r="AS30" s="5"/>
       <c r="AT30" s="5"/>
       <c r="AU30" s="5"/>
       <c r="AV30" s="7"/>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="8"/>
-      <c r="AZ30" s="6"/>
-      <c r="BA30" s="5"/>
-      <c r="BB30" s="5"/>
-      <c r="BC30" s="5"/>
-      <c r="BD30" s="5"/>
-      <c r="BE30" s="7"/>
-      <c r="BF30" s="5"/>
-      <c r="BG30" s="5"/>
-      <c r="BH30" s="5"/>
-      <c r="BI30" s="5"/>
-      <c r="BJ30" s="5"/>
-      <c r="BK30" s="7"/>
-      <c r="BL30" s="3"/>
-      <c r="BM30" s="5"/>
-      <c r="BN30" s="8"/>
-    </row>
-    <row r="31" spans="1:66" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="AW30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY30" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z31" s="20" t="s">
-        <v>73</v>
+      <c r="D31" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="7">
+        <v>505</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O31" s="8">
+        <v>338</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="R31" s="34">
+        <v>501</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U31" s="34">
+        <v>508</v>
+      </c>
+      <c r="V31" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="W31" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="X31" s="50">
+        <v>339</v>
       </c>
       <c r="AA31" s="21"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="20"/>
       <c r="AF31" s="20"/>
       <c r="AG31" s="8"/>
-      <c r="AH31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="5"/>
+      <c r="AH31" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI31" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ31" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK31" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL31" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN31" s="3"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="7"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="7"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="8"/>
-      <c r="AZ31" s="6"/>
-      <c r="BA31" s="5"/>
-      <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="5"/>
-      <c r="BE31" s="7"/>
-      <c r="BF31" s="5"/>
-      <c r="BG31" s="5"/>
-      <c r="BH31" s="5"/>
-      <c r="BI31" s="5"/>
-      <c r="BJ31" s="5"/>
-      <c r="BK31" s="7"/>
-      <c r="BL31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN31" s="8"/>
-    </row>
-    <row r="32" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR31" s="59"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="59"/>
+      <c r="AU31" s="59"/>
+      <c r="AV31" s="7">
+        <v>515</v>
+      </c>
+      <c r="AW31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY31" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>21</v>
@@ -4386,85 +4447,84 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="8"/>
       <c r="P32" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="R32" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="R32" s="34">
+        <v>501</v>
+      </c>
       <c r="S32" s="5" t="s">
         <v>89</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U32" s="7"/>
-      <c r="V32" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="W32" s="20" t="s">
-        <v>115</v>
+        <v>87</v>
+      </c>
+      <c r="U32" s="34">
+        <v>508</v>
       </c>
       <c r="X32" s="8"/>
       <c r="AA32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="8"/>
+      <c r="AB32" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC32" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD32" s="21">
+        <v>509</v>
+      </c>
+      <c r="AE32" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>305</v>
+      </c>
       <c r="AH32" s="6"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="7"/>
-      <c r="AK32" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL32" s="54" t="s">
-        <v>166</v>
-      </c>
       <c r="AM32" s="7"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="8"/>
-      <c r="AQ32" s="6"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="7"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="5"/>
-      <c r="AV32" s="7"/>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
-      <c r="AY32" s="8"/>
-      <c r="AZ32" s="6"/>
-      <c r="BA32" s="5"/>
-      <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="5"/>
-      <c r="BE32" s="7"/>
-      <c r="BF32" s="5"/>
-      <c r="BG32" s="5"/>
-      <c r="BH32" s="5"/>
-      <c r="BI32" s="5"/>
-      <c r="BJ32" s="5"/>
-      <c r="BK32" s="7"/>
-      <c r="BL32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN32" s="8"/>
-    </row>
-    <row r="33" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN32" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP32" s="8">
+        <v>307</v>
+      </c>
+      <c r="AQ32" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="59"/>
+      <c r="AU32" s="59"/>
+      <c r="AV32" s="7">
+        <v>515</v>
+      </c>
+      <c r="AW32" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX32" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY32" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>22</v>
@@ -4481,92 +4541,74 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="5"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="7"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
       <c r="X33" s="8"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="20"/>
       <c r="AA33" s="21"/>
-      <c r="AB33" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC33" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
       <c r="AD33" s="21"/>
-      <c r="AE33" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF33" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="7"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
       <c r="AM33" s="7"/>
-      <c r="AN33" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO33" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
       <c r="AP33" s="8"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="5"/>
-      <c r="AS33" s="7"/>
+      <c r="AS33" s="5"/>
       <c r="AT33" s="5"/>
       <c r="AU33" s="5"/>
       <c r="AV33" s="7"/>
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
-      <c r="AY33" s="8"/>
-      <c r="AZ33" s="6"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="7"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
-      <c r="BK33" s="7"/>
-      <c r="BL33" s="5"/>
-      <c r="BM33" s="5"/>
-      <c r="BN33" s="8"/>
-    </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
+      <c r="AY33" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="8"/>
+      <c r="G34" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="7"/>
@@ -4596,67 +4638,61 @@
       <c r="AP34" s="8"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="5"/>
-      <c r="AS34" s="7"/>
+      <c r="AS34" s="5"/>
       <c r="AT34" s="5"/>
       <c r="AU34" s="5"/>
       <c r="AV34" s="7"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="8"/>
-      <c r="AZ34" s="6"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="7"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
-      <c r="BK34" s="7"/>
-      <c r="BL34" s="5"/>
-      <c r="BM34" s="5"/>
-      <c r="BN34" s="8"/>
-    </row>
-    <row r="35" spans="1:66" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>36</v>
+      <c r="AW34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY34" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="69" t="s">
-        <v>191</v>
+      <c r="G35" s="58" t="s">
+        <v>187</v>
       </c>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="7"/>
+      <c r="L35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q35" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="R35" s="34">
+        <v>501</v>
+      </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="7"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="8"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="20"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="20"/>
       <c r="AC35" s="20"/>
@@ -4667,47 +4703,38 @@
       <c r="AH35" s="6"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="7"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="7"/>
+      <c r="AK35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM35" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="8"/>
       <c r="AQ35" s="6"/>
       <c r="AR35" s="5"/>
-      <c r="AS35" s="7"/>
+      <c r="AS35" s="5"/>
       <c r="AT35" s="5"/>
       <c r="AU35" s="5"/>
       <c r="AV35" s="7"/>
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="5"/>
-      <c r="AY35" s="8"/>
-      <c r="AZ35" s="6"/>
-      <c r="BA35" s="5"/>
-      <c r="BB35" s="5"/>
-      <c r="BC35" s="5"/>
-      <c r="BD35" s="5"/>
-      <c r="BE35" s="7"/>
-      <c r="BF35" s="5"/>
-      <c r="BG35" s="5"/>
-      <c r="BH35" s="5"/>
-      <c r="BI35" s="5"/>
-      <c r="BJ35" s="5"/>
-      <c r="BK35" s="7"/>
-      <c r="BL35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN35" s="8"/>
-    </row>
-    <row r="36" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="AW35" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX35" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY35" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
@@ -4715,79 +4742,97 @@
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q36" s="20" t="s">
-        <v>99</v>
+      <c r="M36" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O36" s="8">
+        <v>338</v>
       </c>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="8"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="7"/>
+      <c r="S36" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="T36" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="U36" s="34">
+        <v>508</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X36" s="50">
+        <v>339</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA36" s="21">
+        <v>511</v>
+      </c>
+      <c r="AE36" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF36" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>305</v>
+      </c>
+      <c r="AH36" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI36" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ36" s="7">
+        <v>514</v>
+      </c>
       <c r="AK36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM36" s="7"/>
-      <c r="AN36" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="AM36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN36" s="3"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="7"/>
-      <c r="AT36" s="5"/>
-      <c r="AU36" s="5"/>
-      <c r="AV36" s="7"/>
+      <c r="AQ36" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="59"/>
+      <c r="AT36" s="59"/>
+      <c r="AU36" s="59"/>
+      <c r="AV36" s="7">
+        <v>515</v>
+      </c>
       <c r="AW36" s="5"/>
       <c r="AX36" s="5"/>
       <c r="AY36" s="8"/>
-      <c r="AZ36" s="6"/>
-      <c r="BA36" s="5"/>
-      <c r="BB36" s="5"/>
-      <c r="BC36" s="5"/>
-      <c r="BD36" s="5"/>
-      <c r="BE36" s="7"/>
-      <c r="BF36" s="5"/>
-      <c r="BG36" s="5"/>
-      <c r="BH36" s="5"/>
-      <c r="BI36" s="5"/>
-      <c r="BJ36" s="5"/>
-      <c r="BK36" s="7"/>
-      <c r="BL36" s="5"/>
-      <c r="BM36" s="5"/>
-      <c r="BN36" s="8"/>
-    </row>
-    <row r="37" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>21</v>
@@ -4801,82 +4846,88 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="8"/>
+      <c r="M37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O37" s="2">
+        <v>338</v>
+      </c>
       <c r="R37" s="7"/>
       <c r="S37" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="U37" s="21"/>
-      <c r="V37" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>119</v>
+        <v>96</v>
+      </c>
+      <c r="U37" s="34">
+        <v>508</v>
       </c>
       <c r="X37" s="8"/>
       <c r="Y37" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA37" s="21"/>
-      <c r="AE37" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF37" s="20" t="s">
-        <v>155</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA37" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB37" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC37" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD37" s="21">
+        <v>509</v>
+      </c>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
       <c r="AG37" s="8"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="7"/>
-      <c r="AK37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="8"/>
+      <c r="AH37" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI37" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ37" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK37" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL37" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP37" s="8">
+        <v>307</v>
+      </c>
       <c r="AQ37" s="6"/>
       <c r="AR37" s="5"/>
-      <c r="AS37" s="7"/>
+      <c r="AS37" s="5"/>
       <c r="AT37" s="5"/>
       <c r="AU37" s="5"/>
       <c r="AV37" s="7"/>
       <c r="AW37" s="5"/>
       <c r="AX37" s="5"/>
       <c r="AY37" s="8"/>
-      <c r="AZ37" s="6"/>
-      <c r="BA37" s="5"/>
-      <c r="BB37" s="5"/>
-      <c r="BC37" s="5"/>
-      <c r="BD37" s="5"/>
-      <c r="BE37" s="7"/>
-      <c r="BF37" s="5"/>
-      <c r="BG37" s="5"/>
-      <c r="BH37" s="5"/>
-      <c r="BI37" s="5"/>
-      <c r="BJ37" s="5"/>
-      <c r="BK37" s="7"/>
-      <c r="BL37" s="5"/>
-      <c r="BM37" s="5"/>
-      <c r="BN37" s="8"/>
-    </row>
-    <row r="38" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:51" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>22</v>
@@ -4890,84 +4941,51 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="5"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="T38" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="U38" s="21"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="AA38" s="21"/>
-      <c r="AB38" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC38" s="20" t="s">
-        <v>133</v>
-      </c>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="21"/>
       <c r="AE38" s="20"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="7"/>
-      <c r="AK38" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL38" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO38" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="AK38" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL38" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM38" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
       <c r="AP38" s="8"/>
       <c r="AQ38" s="6"/>
       <c r="AR38" s="5"/>
-      <c r="AS38" s="7"/>
+      <c r="AS38" s="5"/>
       <c r="AT38" s="5"/>
       <c r="AU38" s="5"/>
       <c r="AV38" s="7"/>
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
       <c r="AY38" s="8"/>
-      <c r="AZ38" s="6"/>
-      <c r="BA38" s="5"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="5"/>
-      <c r="BE38" s="7"/>
-      <c r="BF38" s="5"/>
-      <c r="BG38" s="5"/>
-      <c r="BH38" s="5"/>
-      <c r="BI38" s="5"/>
-      <c r="BJ38" s="5"/>
-      <c r="BK38" s="7"/>
-      <c r="BL38" s="5"/>
-      <c r="BM38" s="5"/>
-      <c r="BN38" s="8"/>
-    </row>
-    <row r="39" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" s="5"/>
       <c r="F39" s="7"/>
@@ -4999,113 +5017,134 @@
       <c r="AH39" s="6"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="7"/>
-      <c r="AK39" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL39" s="55" t="s">
-        <v>173</v>
-      </c>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
       <c r="AM39" s="7"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
       <c r="AP39" s="8"/>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="5"/>
-      <c r="AS39" s="7"/>
+      <c r="AS39" s="5"/>
       <c r="AT39" s="5"/>
       <c r="AU39" s="5"/>
       <c r="AV39" s="7"/>
       <c r="AW39" s="5"/>
       <c r="AX39" s="5"/>
       <c r="AY39" s="8"/>
-      <c r="AZ39" s="6"/>
-      <c r="BA39" s="5"/>
-      <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="5"/>
-      <c r="BE39" s="7"/>
-      <c r="BF39" s="5"/>
-      <c r="BG39" s="5"/>
-      <c r="BH39" s="5"/>
-      <c r="BI39" s="3"/>
-      <c r="BJ39" s="3"/>
-      <c r="BK39" s="7"/>
-      <c r="BL39" s="5"/>
-      <c r="BM39" s="5"/>
-      <c r="BN39" s="8"/>
-    </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="7"/>
+    </row>
+    <row r="40" spans="1:51" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O40" s="22">
+        <v>338</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q40" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R40" s="34">
+        <v>501</v>
+      </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="7"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="8"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="21"/>
+      <c r="Y40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA40" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC40" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD40" s="21">
+        <v>509</v>
+      </c>
       <c r="AE40" s="20"/>
       <c r="AF40" s="20"/>
       <c r="AG40" s="8"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="7"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="7"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="8"/>
-      <c r="AQ40" s="6"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="7"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="7"/>
+      <c r="AH40" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI40" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ40" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK40" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL40" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM40" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP40" s="8">
+        <v>307</v>
+      </c>
+      <c r="AQ40" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR40" s="67"/>
+      <c r="AS40" s="67"/>
+      <c r="AT40" s="67"/>
+      <c r="AU40" s="67"/>
+      <c r="AV40" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="AW40" s="5"/>
       <c r="AX40" s="5"/>
       <c r="AY40" s="8"/>
-      <c r="AZ40" s="6"/>
-      <c r="BA40" s="5"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
-      <c r="BE40" s="7"/>
-      <c r="BF40" s="5"/>
-      <c r="BG40" s="5"/>
-      <c r="BH40" s="5"/>
-      <c r="BI40" s="5"/>
-      <c r="BJ40" s="5"/>
-      <c r="BK40" s="7"/>
-      <c r="BL40" s="5"/>
-      <c r="BM40" s="5"/>
-      <c r="BN40" s="8"/>
-    </row>
-    <row r="41" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="41" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
@@ -5117,187 +5156,159 @@
       <c r="K41" s="20"/>
       <c r="L41" s="21"/>
       <c r="M41" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O41" s="22"/>
+        <v>116</v>
+      </c>
+      <c r="O41" s="22">
+        <v>338</v>
+      </c>
       <c r="P41" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q41" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="R41" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="R41" s="34">
+        <v>501</v>
+      </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="8"/>
+      <c r="V41" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="W41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="Y41" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA41" s="21"/>
+        <v>146</v>
+      </c>
+      <c r="AA41" s="21">
+        <v>511</v>
+      </c>
       <c r="AB41" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC41" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD41" s="21"/>
+        <v>133</v>
+      </c>
+      <c r="AD41" s="21">
+        <v>509</v>
+      </c>
       <c r="AE41" s="20"/>
       <c r="AF41" s="20"/>
       <c r="AG41" s="8"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="7"/>
-      <c r="AK41" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL41" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM41" s="7"/>
-      <c r="AN41" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO41" s="5" t="s">
-        <v>163</v>
+      <c r="AH41" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI41" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ41" s="7">
+        <v>514</v>
+      </c>
+      <c r="AK41" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL41" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM41" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="AP41" s="8"/>
-      <c r="AQ41" s="6"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="7"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="34"/>
-      <c r="AV41" s="7"/>
+      <c r="AQ41" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR41" s="67"/>
+      <c r="AS41" s="67"/>
+      <c r="AT41" s="67"/>
+      <c r="AU41" s="67"/>
+      <c r="AV41" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
       <c r="AY41" s="8"/>
-      <c r="AZ41" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA41" s="57"/>
-      <c r="BB41" s="57"/>
-      <c r="BC41" s="57"/>
-      <c r="BD41" s="57"/>
-      <c r="BE41" s="7"/>
-      <c r="BF41" s="5"/>
-      <c r="BG41" s="5"/>
-      <c r="BH41" s="5"/>
-      <c r="BI41" s="5"/>
-      <c r="BJ41" s="20"/>
-      <c r="BK41" s="21"/>
-      <c r="BL41" s="5"/>
-      <c r="BM41" s="5"/>
-      <c r="BN41" s="8"/>
-    </row>
-    <row r="42" spans="1:66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:51" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O42" s="22"/>
-      <c r="P42" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q42" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="5"/>
       <c r="R42" s="7"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="W42" s="34"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
       <c r="X42" s="8"/>
-      <c r="Y42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="20"/>
       <c r="AA42" s="21"/>
-      <c r="AB42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC42" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="20"/>
       <c r="AF42" s="20"/>
       <c r="AG42" s="8"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="5"/>
+      <c r="AH42" s="40"/>
+      <c r="AI42" s="3"/>
       <c r="AJ42" s="7"/>
-      <c r="AK42" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL42" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM42" s="7"/>
+      <c r="AK42" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL42" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
       <c r="AP42" s="8"/>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="5"/>
-      <c r="AS42" s="7"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="3"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
       <c r="AV42" s="7"/>
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
       <c r="AY42" s="8"/>
-      <c r="AZ42" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA42" s="57"/>
-      <c r="BB42" s="57"/>
-      <c r="BC42" s="57"/>
-      <c r="BD42" s="57"/>
-      <c r="BE42" s="21"/>
-      <c r="BF42" s="5"/>
-      <c r="BG42" s="5"/>
-      <c r="BH42" s="5"/>
-      <c r="BI42" s="5"/>
-      <c r="BJ42" s="5"/>
-      <c r="BK42" s="7"/>
-      <c r="BL42" s="5"/>
-      <c r="BM42" s="5"/>
-      <c r="BN42" s="8"/>
-    </row>
-    <row r="43" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:51" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
@@ -5317,8 +5328,8 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="19"/>
       <c r="Z43" s="20"/>
@@ -5329,52 +5340,31 @@
       <c r="AE43" s="20"/>
       <c r="AF43" s="20"/>
       <c r="AG43" s="8"/>
-      <c r="AH43" s="48"/>
+      <c r="AH43" s="40"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="7"/>
-      <c r="AK43" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL43" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM43" s="7"/>
-      <c r="AN43" s="5"/>
+      <c r="AK43" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL43" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM43" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="AO43" s="5"/>
       <c r="AP43" s="8"/>
       <c r="AQ43" s="6"/>
       <c r="AR43" s="5"/>
-      <c r="AS43" s="7"/>
+      <c r="AS43" s="5"/>
       <c r="AT43" s="5"/>
-      <c r="AU43" s="34"/>
+      <c r="AU43" s="5"/>
       <c r="AV43" s="7"/>
       <c r="AW43" s="5"/>
       <c r="AX43" s="5"/>
       <c r="AY43" s="8"/>
-      <c r="AZ43" s="6"/>
-      <c r="BA43" s="5"/>
-      <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="5"/>
-      <c r="BE43" s="7"/>
-      <c r="BF43" s="20"/>
-      <c r="BG43" s="20"/>
-      <c r="BH43" s="20"/>
-      <c r="BI43" s="20"/>
-      <c r="BJ43" s="20"/>
-      <c r="BK43" s="21"/>
-      <c r="BL43" s="5"/>
-      <c r="BM43" s="5"/>
-      <c r="BN43" s="8"/>
-    </row>
-    <row r="44" spans="1:66" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
       <c r="E44" s="5"/>
       <c r="F44" s="7"/>
@@ -5405,117 +5395,127 @@
       <c r="AE44" s="20"/>
       <c r="AF44" s="20"/>
       <c r="AG44" s="8"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="3"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="5"/>
       <c r="AJ44" s="7"/>
-      <c r="AK44" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL44" s="55" t="s">
-        <v>173</v>
-      </c>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
       <c r="AM44" s="7"/>
+      <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
       <c r="AP44" s="8"/>
       <c r="AQ44" s="6"/>
       <c r="AR44" s="5"/>
-      <c r="AS44" s="7"/>
+      <c r="AS44" s="5"/>
       <c r="AT44" s="5"/>
-      <c r="AU44" s="34"/>
+      <c r="AU44" s="5"/>
       <c r="AV44" s="7"/>
       <c r="AW44" s="5"/>
       <c r="AX44" s="5"/>
       <c r="AY44" s="8"/>
-      <c r="AZ44" s="6"/>
-      <c r="BA44" s="5"/>
-      <c r="BB44" s="5"/>
-      <c r="BC44" s="5"/>
-      <c r="BD44" s="5"/>
-      <c r="BE44" s="7"/>
-      <c r="BF44" s="20"/>
-      <c r="BG44" s="20"/>
-      <c r="BH44" s="20"/>
-      <c r="BI44" s="20"/>
-      <c r="BJ44" s="20"/>
-      <c r="BK44" s="21"/>
-      <c r="BL44" s="5"/>
-      <c r="BM44" s="5"/>
-      <c r="BN44" s="8"/>
-    </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="D45" s="6"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="7"/>
+    </row>
+    <row r="45" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="7"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="7"/>
+      <c r="P45" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q45" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R45" s="34">
+        <v>501</v>
+      </c>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="7"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="21"/>
+      <c r="V45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X45" s="8">
+        <v>339</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA45" s="21">
+        <v>511</v>
+      </c>
+      <c r="AB45" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC45" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD45" s="21">
+        <v>509</v>
+      </c>
       <c r="AE45" s="20"/>
       <c r="AF45" s="20"/>
       <c r="AG45" s="8"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="7"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="7"/>
+      <c r="AK45" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL45" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM45" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
       <c r="AP45" s="8"/>
       <c r="AQ45" s="6"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="7"/>
-      <c r="AT45" s="3"/>
-      <c r="AU45" s="3"/>
-      <c r="AV45" s="7"/>
+      <c r="AR45" s="33"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV45" s="7">
+        <v>515</v>
+      </c>
       <c r="AW45" s="5"/>
       <c r="AX45" s="5"/>
       <c r="AY45" s="8"/>
-      <c r="AZ45" s="6"/>
-      <c r="BA45" s="5"/>
-      <c r="BB45" s="5"/>
-      <c r="BC45" s="5"/>
-      <c r="BD45" s="5"/>
-      <c r="BE45" s="7"/>
-      <c r="BF45" s="5"/>
-      <c r="BG45" s="5"/>
-      <c r="BH45" s="5"/>
-      <c r="BI45" s="5"/>
-      <c r="BJ45" s="5"/>
-      <c r="BK45" s="7"/>
-      <c r="BL45" s="5"/>
-      <c r="BM45" s="5"/>
-      <c r="BN45" s="8"/>
-    </row>
-    <row r="46" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="46" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="23"/>
@@ -5526,88 +5526,84 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="8"/>
+      <c r="M46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O46" s="8">
+        <v>338</v>
+      </c>
       <c r="P46" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q46" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="R46" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="R46" s="34">
+        <v>501</v>
+      </c>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="7"/>
-      <c r="V46" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA46" s="21"/>
+        <v>140</v>
+      </c>
+      <c r="AA46" s="21">
+        <v>511</v>
+      </c>
       <c r="AB46" s="20" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="AC46" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="AD46" s="21">
+        <v>509</v>
+      </c>
+      <c r="AE46" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF46" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG46" s="8">
+        <v>305</v>
+      </c>
       <c r="AH46" s="6"/>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="7"/>
-      <c r="AK46" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL46" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM46" s="7"/>
+      <c r="AK46" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL46" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM46" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
       <c r="AP46" s="8"/>
-      <c r="AQ46" s="6"/>
-      <c r="AR46" s="5"/>
-      <c r="AS46" s="7"/>
-      <c r="AT46" s="5"/>
-      <c r="AU46" s="5"/>
-      <c r="AV46" s="7"/>
+      <c r="AV46" s="21"/>
       <c r="AW46" s="5"/>
       <c r="AX46" s="5"/>
       <c r="AY46" s="8"/>
-      <c r="AZ46" s="6"/>
-      <c r="BA46" s="34"/>
-      <c r="BB46" s="5"/>
-      <c r="BC46" s="5"/>
-      <c r="BD46" s="5"/>
-      <c r="BE46" s="7"/>
-      <c r="BF46" s="5"/>
-      <c r="BG46" s="5"/>
-      <c r="BH46" s="5"/>
-      <c r="BI46" s="5"/>
-      <c r="BJ46" s="5"/>
-      <c r="BK46" s="7"/>
-      <c r="BL46" s="5"/>
-      <c r="BM46" s="5"/>
-      <c r="BN46" s="8"/>
-    </row>
-    <row r="47" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="23"/>
@@ -5618,17 +5614,9 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="N47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="20"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q47" s="20" t="s">
-        <v>94</v>
-      </c>
       <c r="R47" s="7"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
@@ -5636,72 +5624,49 @@
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="8"/>
-      <c r="Y47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="AA47" s="21"/>
-      <c r="AB47" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC47" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="AD47" s="21"/>
       <c r="AE47" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF47" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG47" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="AG47" s="8">
+        <v>305</v>
+      </c>
       <c r="AH47" s="6"/>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="7"/>
-      <c r="AK47" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL47" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM47" s="7"/>
+      <c r="AK47" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL47" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM47" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="AN47" s="5"/>
       <c r="AO47" s="5"/>
-      <c r="AP47" s="8"/>
+      <c r="AP47" s="43"/>
       <c r="AQ47" s="6"/>
       <c r="AR47" s="5"/>
-      <c r="AS47" s="7"/>
+      <c r="AS47" s="5"/>
       <c r="AT47" s="5"/>
       <c r="AU47" s="5"/>
       <c r="AV47" s="7"/>
       <c r="AW47" s="5"/>
       <c r="AX47" s="5"/>
       <c r="AY47" s="8"/>
-      <c r="AZ47" s="19"/>
-      <c r="BA47" s="34"/>
-      <c r="BB47" s="20"/>
-      <c r="BC47" s="20"/>
-      <c r="BD47" s="5"/>
-      <c r="BE47" s="21"/>
-      <c r="BF47" s="5"/>
-      <c r="BG47" s="5"/>
-      <c r="BH47" s="5"/>
-      <c r="BI47" s="5"/>
-      <c r="BJ47" s="5"/>
-      <c r="BK47" s="7"/>
-      <c r="BL47" s="5"/>
-      <c r="BM47" s="5"/>
-      <c r="BN47" s="8"/>
-    </row>
-    <row r="48" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:51" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="23"/>
@@ -5715,6 +5680,8 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="8"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="5"/>
       <c r="R48" s="7"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -5722,67 +5689,48 @@
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="8"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="20"/>
       <c r="AA48" s="21"/>
       <c r="AD48" s="21"/>
-      <c r="AE48" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF48" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG48" s="8"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="14"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="7"/>
-      <c r="AK48" s="55" t="s">
+      <c r="AK48" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="AL48" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM48" s="7"/>
+      <c r="AL48" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM48" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
-      <c r="AP48" s="51"/>
-      <c r="AQ48" s="6"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="7"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="5"/>
+      <c r="AP48" s="43"/>
+      <c r="AQ48" s="40"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="33"/>
       <c r="AV48" s="7"/>
       <c r="AW48" s="5"/>
       <c r="AX48" s="5"/>
       <c r="AY48" s="8"/>
-      <c r="AZ48" s="6"/>
-      <c r="BA48" s="5"/>
-      <c r="BB48" s="5"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-      <c r="BE48" s="7"/>
-      <c r="BF48" s="5"/>
-      <c r="BG48" s="5"/>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="5"/>
-      <c r="BJ48" s="5"/>
-      <c r="BK48" s="7"/>
-      <c r="BL48" s="5"/>
-      <c r="BM48" s="5"/>
-      <c r="BN48" s="8"/>
-    </row>
-    <row r="49" spans="1:66" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="7"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="7"/>
@@ -5801,52 +5749,41 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="21"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="20"/>
       <c r="AF49" s="20"/>
-      <c r="AG49" s="14"/>
+      <c r="AG49" s="8"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="7"/>
-      <c r="AK49" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL49" s="55" t="s">
-        <v>173</v>
-      </c>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
       <c r="AM49" s="7"/>
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
-      <c r="AP49" s="51"/>
-      <c r="AQ49" s="6"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="7"/>
-      <c r="AT49" s="5"/>
-      <c r="AU49" s="5"/>
+      <c r="AP49" s="8"/>
+      <c r="AQ49" s="40"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
       <c r="AV49" s="7"/>
       <c r="AW49" s="5"/>
       <c r="AX49" s="5"/>
       <c r="AY49" s="8"/>
-      <c r="AZ49" s="48"/>
-      <c r="BA49" s="3"/>
-      <c r="BB49" s="3"/>
-      <c r="BC49" s="3"/>
-      <c r="BD49" s="34"/>
-      <c r="BE49" s="7"/>
-      <c r="BF49" s="5"/>
-      <c r="BG49" s="5"/>
-      <c r="BH49" s="5"/>
-      <c r="BI49" s="5"/>
-      <c r="BJ49" s="5"/>
-      <c r="BK49" s="7"/>
-      <c r="BL49" s="5"/>
-      <c r="BM49" s="5"/>
-      <c r="BN49" s="8"/>
-    </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    </row>
+    <row r="50" spans="1:51" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="5"/>
       <c r="F50" s="7"/>
@@ -5859,17 +5796,13 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="5"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
       <c r="U50" s="7"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="8"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="20"/>
       <c r="AA50" s="21"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
@@ -5888,37 +5821,26 @@
       <c r="AP50" s="8"/>
       <c r="AQ50" s="6"/>
       <c r="AR50" s="5"/>
-      <c r="AS50" s="7"/>
+      <c r="AS50" s="5"/>
       <c r="AT50" s="5"/>
       <c r="AU50" s="5"/>
       <c r="AV50" s="7"/>
-      <c r="AW50" s="5"/>
-      <c r="AX50" s="5"/>
-      <c r="AY50" s="8"/>
-      <c r="AZ50" s="48"/>
-      <c r="BA50" s="3"/>
-      <c r="BB50" s="3"/>
-      <c r="BC50" s="3"/>
-      <c r="BD50" s="3"/>
-      <c r="BE50" s="7"/>
-      <c r="BF50" s="5"/>
-      <c r="BG50" s="5"/>
-      <c r="BH50" s="5"/>
-      <c r="BI50" s="5"/>
-      <c r="BJ50" s="5"/>
-      <c r="BK50" s="7"/>
-      <c r="BL50" s="5"/>
-      <c r="BM50" s="5"/>
-      <c r="BN50" s="8"/>
-    </row>
-    <row r="51" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="31" t="s">
+      <c r="AW50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY50" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="6"/>
@@ -5934,63 +5856,78 @@
       <c r="N51" s="5"/>
       <c r="O51" s="8"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
       <c r="U51" s="7"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="8"/>
-      <c r="AA51" s="21"/>
+      <c r="V51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="X51" s="8">
+        <v>339</v>
+      </c>
+      <c r="Y51" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z51" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA51" s="21">
+        <v>511</v>
+      </c>
       <c r="AB51" s="20"/>
       <c r="AC51" s="20"/>
       <c r="AD51" s="21"/>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="6"/>
-      <c r="AI51" s="5"/>
+      <c r="AE51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF51" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG51" s="8">
+        <v>305</v>
+      </c>
+      <c r="AH51" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI51" s="49" t="s">
+        <v>228</v>
+      </c>
       <c r="AJ51" s="7"/>
       <c r="AK51" s="5"/>
       <c r="AL51" s="5"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
+      <c r="AO51" s="3"/>
       <c r="AP51" s="8"/>
-      <c r="AQ51" s="6"/>
-      <c r="AR51" s="5"/>
-      <c r="AS51" s="7"/>
-      <c r="AT51" s="5"/>
-      <c r="AU51" s="5"/>
-      <c r="AV51" s="7"/>
-      <c r="AW51" s="5"/>
-      <c r="AX51" s="5"/>
-      <c r="AY51" s="8"/>
-      <c r="AZ51" s="6"/>
-      <c r="BA51" s="5"/>
-      <c r="BB51" s="5"/>
-      <c r="BC51" s="5"/>
-      <c r="BD51" s="5"/>
-      <c r="BE51" s="7"/>
-      <c r="BF51" s="5"/>
-      <c r="BG51" s="5"/>
-      <c r="BH51" s="5"/>
-      <c r="BI51" s="5"/>
-      <c r="BJ51" s="5"/>
-      <c r="BK51" s="7"/>
-      <c r="BL51" s="5" t="s">
+      <c r="AQ51" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR51" s="59"/>
+      <c r="AS51" s="59"/>
+      <c r="AT51" s="59"/>
+      <c r="AU51" s="59"/>
+      <c r="AV51" s="7">
+        <v>515</v>
+      </c>
+      <c r="AW51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BM51" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN51" s="8"/>
-    </row>
-    <row r="52" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="31" t="s">
+      <c r="AY51" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="6"/>
@@ -6005,33 +5942,27 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="8"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="5"/>
       <c r="R52" s="7"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="W52" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
       <c r="X52" s="8"/>
       <c r="Y52" s="19" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="Z52" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA52" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="AA52" s="21">
+        <v>511</v>
+      </c>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
       <c r="AD52" s="21"/>
-      <c r="AE52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF52" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="AG52" s="8"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="5"/>
@@ -6040,43 +5971,30 @@
       <c r="AL52" s="5"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="5"/>
-      <c r="AO52" s="3"/>
+      <c r="AO52" s="5"/>
       <c r="AP52" s="8"/>
       <c r="AQ52" s="6"/>
       <c r="AR52" s="5"/>
-      <c r="AS52" s="7"/>
+      <c r="AS52" s="5"/>
       <c r="AT52" s="5"/>
       <c r="AU52" s="5"/>
       <c r="AV52" s="7"/>
-      <c r="AW52" s="5"/>
-      <c r="AX52" s="5"/>
-      <c r="AY52" s="8"/>
-      <c r="AZ52" s="6"/>
-      <c r="BA52" s="5"/>
-      <c r="BB52" s="5"/>
-      <c r="BC52" s="5"/>
-      <c r="BD52" s="5"/>
-      <c r="BE52" s="7"/>
-      <c r="BF52" s="3"/>
-      <c r="BG52" s="3"/>
-      <c r="BH52" s="3"/>
-      <c r="BI52" s="3"/>
-      <c r="BJ52" s="5"/>
-      <c r="BK52" s="7"/>
-      <c r="BL52" s="5" t="s">
+      <c r="AW52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX52" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BM52" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN52" s="8"/>
-    </row>
-    <row r="53" spans="1:66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="31" t="s">
+      <c r="AY52" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="6"/>
@@ -6100,16 +6018,14 @@
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="8"/>
-      <c r="Y53" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z53" s="20" t="s">
-        <v>145</v>
-      </c>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="20"/>
       <c r="AA53" s="21"/>
       <c r="AB53" s="20"/>
       <c r="AC53" s="20"/>
       <c r="AD53" s="21"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
       <c r="AG53" s="8"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="5"/>
@@ -6122,40 +6038,17 @@
       <c r="AP53" s="8"/>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="5"/>
-      <c r="AS53" s="7"/>
+      <c r="AS53" s="5"/>
       <c r="AT53" s="5"/>
       <c r="AU53" s="5"/>
       <c r="AV53" s="7"/>
       <c r="AW53" s="5"/>
       <c r="AX53" s="5"/>
       <c r="AY53" s="8"/>
-      <c r="AZ53" s="6"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="7"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
-      <c r="BK53" s="7"/>
-      <c r="BL53" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM53" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN53" s="8"/>
-    </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>23</v>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C54" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="5"/>
@@ -6198,32 +6091,23 @@
       <c r="AP54" s="8"/>
       <c r="AQ54" s="6"/>
       <c r="AR54" s="5"/>
-      <c r="AS54" s="7"/>
+      <c r="AS54" s="5"/>
       <c r="AT54" s="5"/>
       <c r="AU54" s="5"/>
       <c r="AV54" s="7"/>
       <c r="AW54" s="5"/>
       <c r="AX54" s="5"/>
       <c r="AY54" s="8"/>
-      <c r="AZ54" s="6"/>
-      <c r="BA54" s="5"/>
-      <c r="BB54" s="5"/>
-      <c r="BC54" s="5"/>
-      <c r="BD54" s="5"/>
-      <c r="BE54" s="7"/>
-      <c r="BF54" s="5"/>
-      <c r="BG54" s="5"/>
-      <c r="BH54" s="5"/>
-      <c r="BI54" s="5"/>
-      <c r="BJ54" s="5"/>
-      <c r="BK54" s="7"/>
-      <c r="BL54" s="5"/>
-      <c r="BM54" s="5"/>
-      <c r="BN54" s="8"/>
-    </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="C55" s="31" t="s">
-        <v>37</v>
+    </row>
+    <row r="55" spans="1:51" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="5"/>
@@ -6266,45 +6150,34 @@
       <c r="AP55" s="8"/>
       <c r="AQ55" s="6"/>
       <c r="AR55" s="5"/>
-      <c r="AS55" s="7"/>
+      <c r="AS55" s="5"/>
       <c r="AT55" s="5"/>
       <c r="AU55" s="5"/>
       <c r="AV55" s="7"/>
-      <c r="AW55" s="5"/>
-      <c r="AX55" s="5"/>
-      <c r="AY55" s="8"/>
-      <c r="AZ55" s="6"/>
-      <c r="BA55" s="5"/>
-      <c r="BB55" s="5"/>
-      <c r="BC55" s="5"/>
-      <c r="BD55" s="5"/>
-      <c r="BE55" s="7"/>
-      <c r="BF55" s="5"/>
-      <c r="BG55" s="5"/>
-      <c r="BH55" s="5"/>
-      <c r="BI55" s="5"/>
-      <c r="BJ55" s="5"/>
-      <c r="BK55" s="7"/>
-      <c r="BL55" s="5"/>
-      <c r="BM55" s="5"/>
-      <c r="BN55" s="8"/>
-    </row>
-    <row r="56" spans="1:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="31" t="s">
+      <c r="AW55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY55" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="7"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="7"/>
@@ -6317,18 +6190,28 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="7"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
       <c r="X56" s="8"/>
-      <c r="Y56" s="19"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="21"/>
+      <c r="Y56" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z56" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA56" s="21">
+        <v>511</v>
+      </c>
       <c r="AB56" s="20"/>
       <c r="AC56" s="20"/>
       <c r="AD56" s="21"/>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20"/>
-      <c r="AG56" s="8"/>
+      <c r="AE56" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF56" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG56" s="8">
+        <v>305</v>
+      </c>
       <c r="AH56" s="6"/>
       <c r="AI56" s="5"/>
       <c r="AJ56" s="7"/>
@@ -6336,43 +6219,30 @@
       <c r="AL56" s="5"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
+      <c r="AO56" s="3"/>
       <c r="AP56" s="8"/>
-      <c r="AQ56" s="6"/>
-      <c r="AR56" s="5"/>
-      <c r="AS56" s="7"/>
-      <c r="AT56" s="5"/>
+      <c r="AQ56" s="40"/>
+      <c r="AR56" s="3"/>
+      <c r="AS56" s="3"/>
+      <c r="AT56" s="3"/>
       <c r="AU56" s="5"/>
       <c r="AV56" s="7"/>
-      <c r="AW56" s="5"/>
-      <c r="AX56" s="5"/>
-      <c r="AY56" s="8"/>
-      <c r="AZ56" s="6"/>
-      <c r="BA56" s="5"/>
-      <c r="BB56" s="5"/>
-      <c r="BC56" s="5"/>
-      <c r="BD56" s="5"/>
-      <c r="BE56" s="7"/>
-      <c r="BF56" s="5"/>
-      <c r="BG56" s="5"/>
-      <c r="BH56" s="5"/>
-      <c r="BI56" s="5"/>
-      <c r="BJ56" s="5"/>
-      <c r="BK56" s="7"/>
-      <c r="BL56" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM56" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN56" s="8"/>
-    </row>
-    <row r="57" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="31" t="s">
+      <c r="AW56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY56" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="25"/>
@@ -6393,23 +6263,23 @@
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="7"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
       <c r="X57" s="8"/>
       <c r="Y57" s="19" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="Z57" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA57" s="21"/>
+        <v>145</v>
+      </c>
+      <c r="AA57" s="21">
+        <v>511</v>
+      </c>
       <c r="AB57" s="20"/>
       <c r="AC57" s="20"/>
       <c r="AD57" s="21"/>
-      <c r="AE57" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF57" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
       <c r="AG57" s="8"/>
       <c r="AH57" s="6"/>
       <c r="AI57" s="5"/>
@@ -6418,51 +6288,31 @@
       <c r="AL57" s="5"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="5"/>
-      <c r="AO57" s="3"/>
+      <c r="AO57" s="5"/>
       <c r="AP57" s="8"/>
       <c r="AQ57" s="6"/>
       <c r="AR57" s="5"/>
-      <c r="AS57" s="7"/>
+      <c r="AS57" s="5"/>
       <c r="AT57" s="5"/>
       <c r="AU57" s="5"/>
-      <c r="AV57" s="7"/>
-      <c r="AW57" s="5"/>
+      <c r="AV57" s="31"/>
       <c r="AX57" s="5"/>
       <c r="AY57" s="8"/>
-      <c r="AZ57" s="48"/>
-      <c r="BA57" s="3"/>
-      <c r="BB57" s="3"/>
-      <c r="BC57" s="3"/>
-      <c r="BD57" s="5"/>
-      <c r="BE57" s="7"/>
-      <c r="BF57" s="3"/>
-      <c r="BG57" s="3"/>
-      <c r="BH57" s="3"/>
-      <c r="BI57" s="3"/>
-      <c r="BJ57" s="5"/>
-      <c r="BK57" s="7"/>
-      <c r="BL57" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM57" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN57" s="8"/>
-    </row>
-    <row r="58" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="31" t="s">
+    </row>
+    <row r="58" spans="1:51" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="24"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="7"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="7"/>
@@ -6478,12 +6328,8 @@
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="8"/>
-      <c r="Y58" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z58" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="20"/>
       <c r="AA58" s="21"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
@@ -6502,35 +6348,17 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="6"/>
       <c r="AR58" s="5"/>
-      <c r="AS58" s="7"/>
+      <c r="AS58" s="5"/>
       <c r="AT58" s="5"/>
       <c r="AU58" s="5"/>
       <c r="AV58" s="7"/>
       <c r="AW58" s="5"/>
       <c r="AX58" s="5"/>
       <c r="AY58" s="8"/>
-      <c r="AZ58" s="6"/>
-      <c r="BA58" s="5"/>
-      <c r="BB58" s="5"/>
-      <c r="BC58" s="5"/>
-      <c r="BD58" s="5"/>
-      <c r="BE58" s="32"/>
-      <c r="BF58" s="5"/>
-      <c r="BG58" s="5"/>
-      <c r="BH58" s="5"/>
-      <c r="BI58" s="5"/>
-      <c r="BJ58" s="5"/>
-      <c r="BK58" s="7"/>
-      <c r="BM58" s="5"/>
-      <c r="BN58" s="8"/>
-    </row>
-    <row r="59" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>23</v>
+    </row>
+    <row r="59" spans="1:51" ht="75" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -6573,32 +6401,29 @@
       <c r="AP59" s="8"/>
       <c r="AQ59" s="6"/>
       <c r="AR59" s="5"/>
-      <c r="AS59" s="7"/>
+      <c r="AS59" s="5"/>
       <c r="AT59" s="5"/>
       <c r="AU59" s="5"/>
       <c r="AV59" s="7"/>
-      <c r="AW59" s="5"/>
-      <c r="AX59" s="5"/>
-      <c r="AY59" s="8"/>
-      <c r="AZ59" s="6"/>
-      <c r="BA59" s="5"/>
-      <c r="BB59" s="5"/>
-      <c r="BC59" s="5"/>
-      <c r="BD59" s="5"/>
-      <c r="BE59" s="7"/>
-      <c r="BF59" s="5"/>
-      <c r="BG59" s="5"/>
-      <c r="BH59" s="5"/>
-      <c r="BI59" s="5"/>
-      <c r="BJ59" s="5"/>
-      <c r="BK59" s="7"/>
-      <c r="BL59" s="5"/>
-      <c r="BM59" s="5"/>
-      <c r="BN59" s="8"/>
-    </row>
-    <row r="60" spans="1:66" ht="75" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
-        <v>65</v>
+      <c r="AW59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY59" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -6641,41 +6466,26 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="6"/>
       <c r="AR60" s="5"/>
-      <c r="AS60" s="7"/>
+      <c r="AS60" s="5"/>
       <c r="AT60" s="5"/>
       <c r="AU60" s="5"/>
       <c r="AV60" s="7"/>
-      <c r="AW60" s="5"/>
-      <c r="AX60" s="5"/>
-      <c r="AY60" s="8"/>
-      <c r="AZ60" s="6"/>
-      <c r="BA60" s="5"/>
-      <c r="BB60" s="5"/>
-      <c r="BC60" s="5"/>
-      <c r="BD60" s="5"/>
-      <c r="BE60" s="7"/>
-      <c r="BF60" s="5"/>
-      <c r="BG60" s="5"/>
-      <c r="BH60" s="5"/>
-      <c r="BI60" s="5"/>
-      <c r="BJ60" s="5"/>
-      <c r="BK60" s="7"/>
-      <c r="BL60" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN60" s="8"/>
-    </row>
-    <row r="61" spans="1:66" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="31" t="s">
+      <c r="AW60" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY60" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="6"/>
@@ -6719,35 +6529,19 @@
       <c r="AP61" s="8"/>
       <c r="AQ61" s="6"/>
       <c r="AR61" s="5"/>
-      <c r="AS61" s="7"/>
+      <c r="AS61" s="5"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="5"/>
       <c r="AV61" s="7"/>
-      <c r="AW61" s="5"/>
       <c r="AX61" s="5"/>
       <c r="AY61" s="8"/>
-      <c r="AZ61" s="6"/>
-      <c r="BA61" s="5"/>
-      <c r="BB61" s="5"/>
-      <c r="BC61" s="5"/>
-      <c r="BD61" s="5"/>
-      <c r="BE61" s="7"/>
-      <c r="BF61" s="5"/>
-      <c r="BG61" s="5"/>
-      <c r="BH61" s="5"/>
-      <c r="BI61" s="5"/>
-      <c r="BJ61" s="5"/>
-      <c r="BK61" s="7"/>
-      <c r="BL61" s="5"/>
-      <c r="BM61" s="5"/>
-      <c r="BN61" s="8"/>
-    </row>
-    <row r="62" spans="1:66" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="31" t="s">
+    </row>
+    <row r="62" spans="1:51" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="6"/>
@@ -6786,40 +6580,25 @@
       <c r="AK62" s="5"/>
       <c r="AL62" s="5"/>
       <c r="AM62" s="7"/>
-      <c r="AN62" s="5"/>
+      <c r="AN62" s="3"/>
       <c r="AO62" s="5"/>
       <c r="AP62" s="8"/>
-      <c r="AQ62" s="6"/>
-      <c r="AR62" s="5"/>
-      <c r="AS62" s="7"/>
+      <c r="AQ62" s="19"/>
+      <c r="AR62" s="33"/>
+      <c r="AS62" s="5"/>
       <c r="AT62" s="5"/>
       <c r="AU62" s="5"/>
       <c r="AV62" s="7"/>
       <c r="AW62" s="5"/>
       <c r="AX62" s="5"/>
       <c r="AY62" s="8"/>
-      <c r="AZ62" s="6"/>
-      <c r="BA62" s="5"/>
-      <c r="BB62" s="5"/>
-      <c r="BC62" s="5"/>
-      <c r="BD62" s="5"/>
-      <c r="BE62" s="7"/>
-      <c r="BF62" s="5"/>
-      <c r="BG62" s="5"/>
-      <c r="BH62" s="5"/>
-      <c r="BI62" s="5"/>
-      <c r="BJ62" s="5"/>
-      <c r="BK62" s="7"/>
-      <c r="BL62" s="5"/>
-      <c r="BM62" s="5"/>
-      <c r="BN62" s="8"/>
-    </row>
-    <row r="63" spans="1:66" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="31" t="s">
+    </row>
+    <row r="63" spans="1:51" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="6"/>
@@ -6858,41 +6637,28 @@
       <c r="AK63" s="5"/>
       <c r="AL63" s="5"/>
       <c r="AM63" s="7"/>
-      <c r="AN63" s="3"/>
+      <c r="AN63" s="5"/>
       <c r="AO63" s="5"/>
       <c r="AP63" s="8"/>
       <c r="AQ63" s="6"/>
       <c r="AR63" s="5"/>
-      <c r="AS63" s="7"/>
+      <c r="AS63" s="5"/>
       <c r="AT63" s="5"/>
       <c r="AU63" s="5"/>
       <c r="AV63" s="7"/>
       <c r="AW63" s="5"/>
       <c r="AX63" s="5"/>
       <c r="AY63" s="8"/>
-      <c r="AZ63" s="19"/>
-      <c r="BA63" s="34"/>
-      <c r="BB63" s="5"/>
-      <c r="BC63" s="5"/>
-      <c r="BD63" s="5"/>
-      <c r="BE63" s="7"/>
-      <c r="BF63" s="5"/>
-      <c r="BG63" s="5"/>
-      <c r="BH63" s="5"/>
-      <c r="BI63" s="5"/>
-      <c r="BJ63" s="5"/>
-      <c r="BK63" s="7"/>
-      <c r="BL63" s="5"/>
-      <c r="BM63" s="5"/>
-      <c r="BN63" s="8"/>
-    </row>
-    <row r="64" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>23</v>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="5"/>
@@ -6935,37 +6701,20 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="6"/>
       <c r="AR64" s="5"/>
-      <c r="AS64" s="7"/>
+      <c r="AS64" s="5"/>
       <c r="AT64" s="5"/>
       <c r="AU64" s="5"/>
       <c r="AV64" s="7"/>
       <c r="AW64" s="5"/>
       <c r="AX64" s="5"/>
       <c r="AY64" s="8"/>
-      <c r="AZ64" s="6"/>
-      <c r="BA64" s="5"/>
-      <c r="BB64" s="5"/>
-      <c r="BC64" s="5"/>
-      <c r="BD64" s="5"/>
-      <c r="BE64" s="7"/>
-      <c r="BF64" s="5"/>
-      <c r="BG64" s="5"/>
-      <c r="BH64" s="5"/>
-      <c r="BI64" s="5"/>
-      <c r="BJ64" s="5"/>
-      <c r="BK64" s="7"/>
-      <c r="BL64" s="5"/>
-      <c r="BM64" s="5"/>
-      <c r="BN64" s="8"/>
-    </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="31" t="s">
+    </row>
+    <row r="65" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="6"/>
@@ -7007,37 +6756,22 @@
       <c r="AN65" s="5"/>
       <c r="AO65" s="5"/>
       <c r="AP65" s="8"/>
-      <c r="AQ65" s="6"/>
-      <c r="AR65" s="5"/>
-      <c r="AS65" s="7"/>
-      <c r="AT65" s="5"/>
-      <c r="AU65" s="5"/>
+      <c r="AQ65" s="40"/>
+      <c r="AR65" s="3"/>
+      <c r="AS65" s="3"/>
+      <c r="AT65" s="3"/>
+      <c r="AU65" s="3"/>
       <c r="AV65" s="7"/>
       <c r="AW65" s="5"/>
       <c r="AX65" s="5"/>
       <c r="AY65" s="8"/>
-      <c r="AZ65" s="6"/>
-      <c r="BA65" s="5"/>
-      <c r="BB65" s="5"/>
-      <c r="BC65" s="5"/>
-      <c r="BD65" s="5"/>
-      <c r="BE65" s="7"/>
-      <c r="BF65" s="5"/>
-      <c r="BG65" s="5"/>
-      <c r="BH65" s="5"/>
-      <c r="BI65" s="5"/>
-      <c r="BJ65" s="5"/>
-      <c r="BK65" s="7"/>
-      <c r="BL65" s="5"/>
-      <c r="BM65" s="5"/>
-      <c r="BN65" s="8"/>
-    </row>
-    <row r="66" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="31" t="s">
+    </row>
+    <row r="66" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="6"/>
@@ -7079,37 +6813,22 @@
       <c r="AN66" s="5"/>
       <c r="AO66" s="5"/>
       <c r="AP66" s="8"/>
-      <c r="AQ66" s="6"/>
-      <c r="AR66" s="5"/>
-      <c r="AS66" s="7"/>
-      <c r="AT66" s="5"/>
+      <c r="AQ66" s="40"/>
+      <c r="AR66" s="3"/>
+      <c r="AS66" s="3"/>
+      <c r="AT66" s="3"/>
       <c r="AU66" s="5"/>
       <c r="AV66" s="7"/>
       <c r="AW66" s="5"/>
       <c r="AX66" s="5"/>
       <c r="AY66" s="8"/>
-      <c r="AZ66" s="48"/>
-      <c r="BA66" s="3"/>
-      <c r="BB66" s="3"/>
-      <c r="BC66" s="3"/>
-      <c r="BD66" s="3"/>
-      <c r="BE66" s="7"/>
-      <c r="BF66" s="5"/>
-      <c r="BG66" s="5"/>
-      <c r="BH66" s="5"/>
-      <c r="BI66" s="5"/>
-      <c r="BJ66" s="5"/>
-      <c r="BK66" s="7"/>
-      <c r="BL66" s="5"/>
-      <c r="BM66" s="5"/>
-      <c r="BN66" s="8"/>
-    </row>
-    <row r="67" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="31" t="s">
+    </row>
+    <row r="67" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="6"/>
@@ -7153,36 +6872,17 @@
       <c r="AP67" s="8"/>
       <c r="AQ67" s="6"/>
       <c r="AR67" s="5"/>
-      <c r="AS67" s="7"/>
+      <c r="AS67" s="5"/>
       <c r="AT67" s="5"/>
       <c r="AU67" s="5"/>
       <c r="AV67" s="7"/>
       <c r="AW67" s="5"/>
       <c r="AX67" s="5"/>
       <c r="AY67" s="8"/>
-      <c r="AZ67" s="48"/>
-      <c r="BA67" s="3"/>
-      <c r="BB67" s="3"/>
-      <c r="BC67" s="3"/>
-      <c r="BD67" s="5"/>
-      <c r="BE67" s="7"/>
-      <c r="BF67" s="5"/>
-      <c r="BG67" s="5"/>
-      <c r="BH67" s="5"/>
-      <c r="BI67" s="5"/>
-      <c r="BJ67" s="5"/>
-      <c r="BK67" s="7"/>
-      <c r="BL67" s="5"/>
-      <c r="BM67" s="5"/>
-      <c r="BN67" s="8"/>
-    </row>
-    <row r="68" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>23</v>
+    </row>
+    <row r="68" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="5"/>
@@ -7225,32 +6925,23 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="6"/>
       <c r="AR68" s="5"/>
-      <c r="AS68" s="7"/>
+      <c r="AS68" s="5"/>
       <c r="AT68" s="5"/>
       <c r="AU68" s="5"/>
       <c r="AV68" s="7"/>
       <c r="AW68" s="5"/>
       <c r="AX68" s="5"/>
       <c r="AY68" s="8"/>
-      <c r="AZ68" s="6"/>
-      <c r="BA68" s="5"/>
-      <c r="BB68" s="5"/>
-      <c r="BC68" s="5"/>
-      <c r="BD68" s="5"/>
-      <c r="BE68" s="7"/>
-      <c r="BF68" s="20"/>
-      <c r="BG68" s="20"/>
-      <c r="BH68" s="20"/>
-      <c r="BI68" s="20"/>
-      <c r="BJ68" s="20"/>
-      <c r="BK68" s="21"/>
-      <c r="BL68" s="5"/>
-      <c r="BM68" s="5"/>
-      <c r="BN68" s="8"/>
-    </row>
-    <row r="69" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>0</v>
+      </c>
       <c r="C69" s="30" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="5"/>
@@ -7291,39 +6982,22 @@
       <c r="AN69" s="5"/>
       <c r="AO69" s="5"/>
       <c r="AP69" s="8"/>
-      <c r="AQ69" s="6"/>
-      <c r="AR69" s="5"/>
-      <c r="AS69" s="7"/>
-      <c r="AT69" s="5"/>
-      <c r="AU69" s="5"/>
-      <c r="AV69" s="7"/>
+      <c r="AQ69" s="19"/>
+      <c r="AR69" s="20"/>
+      <c r="AS69" s="20"/>
+      <c r="AT69" s="20"/>
+      <c r="AU69" s="20"/>
+      <c r="AV69" s="21"/>
       <c r="AW69" s="5"/>
       <c r="AX69" s="5"/>
       <c r="AY69" s="8"/>
-      <c r="AZ69" s="6"/>
-      <c r="BA69" s="5"/>
-      <c r="BB69" s="5"/>
-      <c r="BC69" s="5"/>
-      <c r="BD69" s="5"/>
-      <c r="BE69" s="7"/>
-      <c r="BF69" s="5"/>
-      <c r="BG69" s="5"/>
-      <c r="BH69" s="5"/>
-      <c r="BI69" s="5"/>
-      <c r="BJ69" s="5"/>
-      <c r="BK69" s="7"/>
-      <c r="BL69" s="5"/>
-      <c r="BM69" s="5"/>
-      <c r="BN69" s="8"/>
-    </row>
-    <row r="70" spans="1:66" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="31" t="s">
+    </row>
+    <row r="70" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="6"/>
@@ -7367,35 +7041,20 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="6"/>
       <c r="AR70" s="5"/>
-      <c r="AS70" s="7"/>
+      <c r="AS70" s="5"/>
       <c r="AT70" s="5"/>
       <c r="AU70" s="5"/>
       <c r="AV70" s="7"/>
       <c r="AW70" s="5"/>
       <c r="AX70" s="5"/>
       <c r="AY70" s="8"/>
-      <c r="AZ70" s="19"/>
-      <c r="BA70" s="20"/>
-      <c r="BB70" s="20"/>
-      <c r="BC70" s="20"/>
-      <c r="BD70" s="20"/>
-      <c r="BE70" s="21"/>
-      <c r="BF70" s="5"/>
-      <c r="BG70" s="5"/>
-      <c r="BH70" s="5"/>
-      <c r="BI70" s="5"/>
-      <c r="BJ70" s="5"/>
-      <c r="BK70" s="7"/>
-      <c r="BL70" s="5"/>
-      <c r="BM70" s="5"/>
-      <c r="BN70" s="8"/>
-    </row>
-    <row r="71" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="31" t="s">
+    </row>
+    <row r="71" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="6"/>
@@ -7413,7 +7072,7 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
+      <c r="S71" s="33"/>
       <c r="T71" s="5"/>
       <c r="U71" s="7"/>
       <c r="V71" s="5"/>
@@ -7439,180 +7098,146 @@
       <c r="AP71" s="8"/>
       <c r="AQ71" s="6"/>
       <c r="AR71" s="5"/>
-      <c r="AS71" s="7"/>
+      <c r="AS71" s="5"/>
       <c r="AT71" s="5"/>
       <c r="AU71" s="5"/>
       <c r="AV71" s="7"/>
       <c r="AW71" s="5"/>
       <c r="AX71" s="5"/>
       <c r="AY71" s="8"/>
-      <c r="AZ71" s="6"/>
-      <c r="BA71" s="5"/>
-      <c r="BB71" s="5"/>
-      <c r="BC71" s="5"/>
-      <c r="BD71" s="5"/>
-      <c r="BE71" s="7"/>
-      <c r="BF71" s="5"/>
-      <c r="BG71" s="5"/>
-      <c r="BH71" s="5"/>
-      <c r="BI71" s="5"/>
-      <c r="BJ71" s="5"/>
-      <c r="BK71" s="7"/>
-      <c r="BL71" s="5"/>
-      <c r="BM71" s="5"/>
-      <c r="BN71" s="8"/>
-    </row>
-    <row r="72" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="31" t="s">
+    </row>
+    <row r="72" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="20"/>
-      <c r="AA72" s="21"/>
-      <c r="AB72" s="20"/>
-      <c r="AC72" s="20"/>
-      <c r="AD72" s="21"/>
-      <c r="AE72" s="20"/>
-      <c r="AF72" s="20"/>
-      <c r="AG72" s="8"/>
-      <c r="AH72" s="6"/>
-      <c r="AI72" s="5"/>
-      <c r="AJ72" s="7"/>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="5"/>
-      <c r="AM72" s="7"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="5"/>
-      <c r="AP72" s="8"/>
-      <c r="AQ72" s="6"/>
-      <c r="AR72" s="5"/>
-      <c r="AS72" s="7"/>
-      <c r="AT72" s="5"/>
-      <c r="AU72" s="5"/>
-      <c r="AV72" s="7"/>
-      <c r="AW72" s="5"/>
-      <c r="AX72" s="5"/>
-      <c r="AY72" s="8"/>
-      <c r="AZ72" s="6"/>
-      <c r="BA72" s="5"/>
-      <c r="BB72" s="5"/>
-      <c r="BC72" s="5"/>
-      <c r="BD72" s="5"/>
-      <c r="BE72" s="7"/>
-      <c r="BF72" s="5"/>
-      <c r="BG72" s="5"/>
-      <c r="BH72" s="5"/>
-      <c r="BI72" s="5"/>
-      <c r="BJ72" s="5"/>
-      <c r="BK72" s="7"/>
-      <c r="BL72" s="5"/>
-      <c r="BM72" s="5"/>
-      <c r="BN72" s="8"/>
-    </row>
-    <row r="73" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="49"/>
-      <c r="Z73" s="50"/>
-      <c r="AA73" s="52"/>
-      <c r="AB73" s="50"/>
-      <c r="AC73" s="50"/>
-      <c r="AD73" s="52"/>
-      <c r="AE73" s="50"/>
-      <c r="AF73" s="50"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="11"/>
-      <c r="AI73" s="12"/>
-      <c r="AJ73" s="13"/>
-      <c r="AK73" s="12"/>
-      <c r="AL73" s="12"/>
-      <c r="AM73" s="13"/>
-      <c r="AN73" s="12"/>
-      <c r="AO73" s="12"/>
-      <c r="AP73" s="14"/>
-      <c r="AQ73" s="11"/>
-      <c r="AR73" s="12"/>
-      <c r="AS73" s="13"/>
-      <c r="AT73" s="12"/>
-      <c r="AU73" s="12"/>
-      <c r="AV73" s="13"/>
-      <c r="AW73" s="12"/>
-      <c r="AX73" s="12"/>
-      <c r="AY73" s="14"/>
-      <c r="AZ73" s="11"/>
-      <c r="BA73" s="12"/>
-      <c r="BB73" s="12"/>
-      <c r="BC73" s="12"/>
-      <c r="BD73" s="12"/>
-      <c r="BE73" s="13"/>
-      <c r="BF73" s="12"/>
-      <c r="BG73" s="12"/>
-      <c r="BH73" s="12"/>
-      <c r="BI73" s="12"/>
-      <c r="BJ73" s="12"/>
-      <c r="BK73" s="13"/>
-      <c r="BL73" s="12"/>
-      <c r="BM73" s="12"/>
-      <c r="BN73" s="14"/>
-    </row>
-    <row r="74" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="44"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="44"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="13"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="13"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="14"/>
+      <c r="AQ72" s="11"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="13"/>
+      <c r="AW72" s="12"/>
+      <c r="AX72" s="12"/>
+      <c r="AY72" s="14"/>
+    </row>
+    <row r="73" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="45"/>
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="5"/>
+      <c r="AP73" s="5"/>
+      <c r="AQ73" s="5"/>
+      <c r="AR73" s="5"/>
+      <c r="AS73" s="5"/>
+      <c r="AT73" s="5"/>
+      <c r="AU73" s="5"/>
+      <c r="AV73" s="5"/>
+      <c r="AW73" s="5"/>
+      <c r="AX73" s="5"/>
+      <c r="AY73" s="5"/>
+      <c r="AZ73" s="5"/>
+      <c r="BA73" s="5"/>
+      <c r="BB73" s="5"/>
+      <c r="BC73" s="5"/>
+      <c r="BD73" s="5"/>
+      <c r="BE73" s="5"/>
+      <c r="BF73" s="5"/>
+      <c r="BG73" s="5"/>
+      <c r="BH73" s="5"/>
+      <c r="BI73" s="5"/>
+      <c r="BJ73" s="5"/>
+      <c r="BK73" s="5"/>
+      <c r="BL73" s="5"/>
+      <c r="BM73" s="5"/>
+      <c r="BN73" s="5"/>
+    </row>
+    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -7639,8 +7264,8 @@
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
-      <c r="AJ74" s="7"/>
-      <c r="AK74" s="53"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
       <c r="AL74" s="5"/>
       <c r="AM74" s="5"/>
       <c r="AN74" s="5"/>
@@ -7671,16 +7296,16 @@
       <c r="BM74" s="5"/>
       <c r="BN74" s="5"/>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+    <row r="75" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -7739,16 +7364,16 @@
       <c r="BM75" s="5"/>
       <c r="BN75" s="5"/>
     </row>
-    <row r="76" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
+    <row r="76" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -7808,15 +7433,15 @@
       <c r="BN76" s="5"/>
     </row>
     <row r="77" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -7875,16 +7500,13 @@
       <c r="BM77" s="5"/>
       <c r="BN77" s="5"/>
     </row>
-    <row r="78" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
+    <row r="78" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -7943,13 +7565,16 @@
       <c r="BM78" s="5"/>
       <c r="BN78" s="5"/>
     </row>
-    <row r="79" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
+    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -8008,16 +7633,16 @@
       <c r="BM79" s="5"/>
       <c r="BN79" s="5"/>
     </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
+    <row r="80" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -8077,15 +7702,15 @@
       <c r="BN80" s="5"/>
     </row>
     <row r="81" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -8144,10 +7769,10 @@
       <c r="BM81" s="5"/>
       <c r="BN81" s="5"/>
     </row>
-    <row r="82" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
+    <row r="82" spans="1:66" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
@@ -8212,16 +7837,16 @@
       <c r="BM82" s="5"/>
       <c r="BN82" s="5"/>
     </row>
-    <row r="83" spans="1:66" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
+    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -8281,15 +7906,15 @@
       <c r="BN83" s="5"/>
     </row>
     <row r="84" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -8349,9 +7974,9 @@
       <c r="BN84" s="5"/>
     </row>
     <row r="85" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -8621,9 +8246,9 @@
       <c r="BN88" s="5"/>
     </row>
     <row r="89" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -8689,112 +8314,83 @@
       <c r="BN89" s="5"/>
     </row>
     <row r="90" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="5"/>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5"/>
-      <c r="AF90" s="5"/>
-      <c r="AG90" s="5"/>
-      <c r="AH90" s="5"/>
-      <c r="AI90" s="5"/>
-      <c r="AJ90" s="5"/>
-      <c r="AK90" s="5"/>
-      <c r="AL90" s="5"/>
-      <c r="AM90" s="5"/>
-      <c r="AN90" s="5"/>
-      <c r="AO90" s="5"/>
-      <c r="AP90" s="5"/>
-      <c r="AQ90" s="5"/>
-      <c r="AR90" s="5"/>
-      <c r="AS90" s="5"/>
-      <c r="AT90" s="5"/>
-      <c r="AU90" s="5"/>
-      <c r="AV90" s="5"/>
-      <c r="AW90" s="5"/>
-      <c r="AX90" s="5"/>
-      <c r="AY90" s="5"/>
-      <c r="AZ90" s="5"/>
-      <c r="BA90" s="5"/>
-      <c r="BB90" s="5"/>
-      <c r="BC90" s="5"/>
-      <c r="BD90" s="5"/>
-      <c r="BE90" s="5"/>
-      <c r="BF90" s="5"/>
-      <c r="BG90" s="5"/>
-      <c r="BH90" s="5"/>
-      <c r="BI90" s="5"/>
-      <c r="BJ90" s="5"/>
-      <c r="BK90" s="5"/>
-      <c r="BL90" s="5"/>
-      <c r="BM90" s="5"/>
-      <c r="BN90" s="5"/>
-    </row>
-    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="AB91" s="3"/>
-      <c r="AP91" s="3"/>
-      <c r="AQ91" s="3"/>
-      <c r="AR91" s="3"/>
-      <c r="AS91" s="3"/>
-      <c r="AT91" s="3"/>
-      <c r="AU91" s="3"/>
-      <c r="AV91" s="3"/>
-      <c r="AW91" s="3"/>
-      <c r="AX91" s="3"/>
-      <c r="AY91" s="3"/>
-      <c r="AZ91" s="3"/>
-      <c r="BA91" s="3"/>
-      <c r="BB91" s="3"/>
-      <c r="BC91" s="3"/>
-      <c r="BD91" s="3"/>
-      <c r="BE91" s="3"/>
-      <c r="BF91" s="3"/>
-      <c r="BG91" s="3"/>
-      <c r="BH91" s="3"/>
-      <c r="BI91" s="3"/>
-      <c r="BJ91" s="3"/>
-      <c r="BK91" s="3"/>
-      <c r="BL91" s="3"/>
-      <c r="BM91" s="3"/>
-      <c r="BN91" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AP90" s="3"/>
+      <c r="AQ90" s="3"/>
+      <c r="AR90" s="3"/>
+      <c r="AS90" s="3"/>
+      <c r="AT90" s="3"/>
+      <c r="AU90" s="3"/>
+      <c r="AV90" s="3"/>
+      <c r="AW90" s="3"/>
+      <c r="AX90" s="3"/>
+      <c r="AY90" s="3"/>
+      <c r="AZ90" s="3"/>
+      <c r="BA90" s="3"/>
+      <c r="BB90" s="3"/>
+      <c r="BC90" s="3"/>
+      <c r="BD90" s="3"/>
+      <c r="BE90" s="3"/>
+      <c r="BF90" s="3"/>
+      <c r="BG90" s="3"/>
+      <c r="BH90" s="3"/>
+      <c r="BI90" s="3"/>
+      <c r="BJ90" s="3"/>
+      <c r="BK90" s="3"/>
+      <c r="BL90" s="3"/>
+      <c r="BM90" s="3"/>
+      <c r="BN90" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BR3:BT3"/>
+  <mergeCells count="66">
+    <mergeCell ref="AQ32:AU32"/>
+    <mergeCell ref="AQ36:AU36"/>
+    <mergeCell ref="AQ12:AU12"/>
+    <mergeCell ref="AQ13:AU13"/>
+    <mergeCell ref="AQ27:AU27"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AQ11:AU11"/>
+    <mergeCell ref="AQ16:AU16"/>
+    <mergeCell ref="AQ17:AU17"/>
+    <mergeCell ref="AQ21:AU21"/>
+    <mergeCell ref="AQ22:AU22"/>
+    <mergeCell ref="AQ31:AU31"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="AQ40:AU40"/>
+    <mergeCell ref="AQ41:AU41"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="AQ51:AU51"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AQ2:AV2"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AQ1:BE1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="BC3:BE3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
     <mergeCell ref="J2:L3"/>
@@ -8804,42 +8400,15 @@
     <mergeCell ref="V2:X3"/>
     <mergeCell ref="Y2:AA3"/>
     <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AT3:AV3"/>
     <mergeCell ref="AE2:AG3"/>
     <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BN1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="AZ6:BD6"/>
-    <mergeCell ref="AZ7:BD7"/>
-    <mergeCell ref="AZ41:BD41"/>
-    <mergeCell ref="AZ42:BD42"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AW3:AY3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_4.xlsx
+++ b/Rozklad_4.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="242">
   <si>
     <t>І</t>
   </si>
@@ -814,6 +814,9 @@
   </si>
   <si>
     <t>квант</t>
+  </si>
+  <si>
+    <t>Географія сільського і лісового господарства Закарпаття (іспит)</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1169,32 +1172,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1205,32 +1211,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1504,7 +1513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1515,10 +1524,10 @@
   <dimension ref="A1:BN90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,215 +1608,215 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="60" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="60" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="60" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="60" t="s">
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="63"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="52" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="53" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56" t="s">
+      <c r="N2" s="65"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="52" t="s">
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="53" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56" t="s">
+      <c r="W2" s="65"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="52" t="s">
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="53" t="s">
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="52" t="s">
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="53" t="s">
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="56" t="s">
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="53" t="s">
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="55"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="70"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="D3" s="56"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="53" t="s">
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="53" t="s">
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="51"/>
-      <c r="BE3" s="51"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="68"/>
+      <c r="BC3" s="68"/>
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
     </row>
     <row r="4" spans="1:57" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1977,20 +1986,20 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="19" t="s">
         <v>90</v>
       </c>
@@ -2064,13 +2073,13 @@
       <c r="AP5" s="16">
         <v>307</v>
       </c>
-      <c r="AQ5" s="66" t="s">
+      <c r="AQ5" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67"/>
-      <c r="AU5" s="67"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
       <c r="AV5" s="21" t="s">
         <v>240</v>
       </c>
@@ -2086,20 +2095,20 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="67"/>
       <c r="P6" s="19" t="s">
         <v>90</v>
       </c>
@@ -2173,13 +2182,13 @@
       <c r="AP6" s="16">
         <v>307</v>
       </c>
-      <c r="AQ6" s="66" t="s">
+      <c r="AQ6" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
       <c r="AV6" s="21" t="s">
         <v>240</v>
       </c>
@@ -2195,13 +2204,13 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="21">
         <v>505</v>
       </c>
@@ -2302,13 +2311,13 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="21">
         <v>505</v>
       </c>
@@ -2451,20 +2460,20 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="65"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="67"/>
       <c r="P10" s="19" t="s">
         <v>90</v>
       </c>
@@ -2540,13 +2549,13 @@
       <c r="AP10" s="8">
         <v>307</v>
       </c>
-      <c r="AQ10" s="70" t="s">
+      <c r="AQ10" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="59"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
       <c r="AV10" s="7">
         <v>515</v>
       </c>
@@ -2653,13 +2662,13 @@
       <c r="AP11" s="8">
         <v>307</v>
       </c>
-      <c r="AQ11" s="70" t="s">
+      <c r="AQ11" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="AR11" s="59"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="59"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
       <c r="AV11" s="7">
         <v>515</v>
       </c>
@@ -2752,13 +2761,13 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="8"/>
-      <c r="AQ12" s="70" t="s">
+      <c r="AQ12" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
+      <c r="AU12" s="54"/>
       <c r="AV12" s="21">
         <v>515</v>
       </c>
@@ -2823,13 +2832,13 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="70" t="s">
+      <c r="AQ13" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
       <c r="AV13" s="21">
         <v>515</v>
       </c>
@@ -2915,13 +2924,13 @@
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="7" t="s">
         <v>236</v>
       </c>
@@ -3009,13 +3018,13 @@
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
       <c r="I16" s="7">
         <v>505</v>
       </c>
@@ -3106,13 +3115,13 @@
       <c r="AP16" s="8">
         <v>307</v>
       </c>
-      <c r="AQ16" s="70" t="s">
+      <c r="AQ16" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AR16" s="59"/>
-      <c r="AS16" s="59"/>
-      <c r="AT16" s="59"/>
-      <c r="AU16" s="59"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
       <c r="AV16" s="7">
         <v>515</v>
       </c>
@@ -3134,13 +3143,13 @@
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="7">
         <v>505</v>
       </c>
@@ -3213,13 +3222,13 @@
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="8"/>
-      <c r="AQ17" s="70" t="s">
+      <c r="AQ17" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AR17" s="59"/>
-      <c r="AS17" s="59"/>
-      <c r="AT17" s="59"/>
-      <c r="AU17" s="59"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
       <c r="AV17" s="7">
         <v>515</v>
       </c>
@@ -3362,13 +3371,13 @@
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="7" t="s">
         <v>236</v>
       </c>
@@ -3438,13 +3447,13 @@
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
       <c r="I21" s="21">
         <v>505</v>
       </c>
@@ -3493,13 +3502,13 @@
       <c r="X21" s="50">
         <v>339</v>
       </c>
-      <c r="Y21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z21" s="2" t="s">
+      <c r="Y21" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z21" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AA21" s="73">
         <v>511</v>
       </c>
       <c r="AB21" s="20" t="s">
@@ -3547,13 +3556,13 @@
       <c r="AP21" s="8">
         <v>307</v>
       </c>
-      <c r="AQ21" s="70" t="s">
+      <c r="AQ21" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
       <c r="AV21" s="7"/>
       <c r="AW21" s="5" t="s">
         <v>220</v>
@@ -3573,13 +3582,13 @@
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="21">
         <v>505</v>
       </c>
@@ -3616,13 +3625,13 @@
       <c r="X22" s="50">
         <v>339</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="Y22" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="Z22" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="AA22" s="21">
+      <c r="AA22" s="73">
         <v>511</v>
       </c>
       <c r="AB22" s="2" t="s">
@@ -3670,13 +3679,13 @@
       <c r="AP22" s="8">
         <v>307</v>
       </c>
-      <c r="AQ22" s="70" t="s">
+      <c r="AQ22" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="59"/>
+      <c r="AR22" s="54"/>
+      <c r="AS22" s="54"/>
+      <c r="AT22" s="54"/>
+      <c r="AU22" s="54"/>
       <c r="AV22" s="7"/>
       <c r="AW22" s="5" t="s">
         <v>220</v>
@@ -3717,9 +3726,15 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="21"/>
+      <c r="Y23" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z23" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA23" s="73">
+        <v>511</v>
+      </c>
       <c r="AD23" s="21"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="8"/>
@@ -3761,13 +3776,13 @@
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="7" t="s">
         <v>236</v>
       </c>
@@ -3830,7 +3845,7 @@
       <c r="F25" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
@@ -4118,13 +4133,13 @@
       <c r="AP27" s="8">
         <v>307</v>
       </c>
-      <c r="AQ27" s="70" t="s">
+      <c r="AQ27" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="59"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="54"/>
+      <c r="AT27" s="54"/>
+      <c r="AU27" s="54"/>
       <c r="AV27" s="7">
         <v>515</v>
       </c>
@@ -4190,7 +4205,7 @@
       <c r="AY28" s="8"/>
     </row>
     <row r="29" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="71"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="6"/>
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
@@ -4329,13 +4344,13 @@
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="7">
         <v>505</v>
       </c>
@@ -4384,7 +4399,15 @@
       <c r="X31" s="50">
         <v>339</v>
       </c>
-      <c r="AA31" s="21"/>
+      <c r="Y31" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z31" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA31" s="73">
+        <v>511</v>
+      </c>
       <c r="AD31" s="21"/>
       <c r="AE31" s="20"/>
       <c r="AF31" s="20"/>
@@ -4410,13 +4433,13 @@
       <c r="AN31" s="3"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="70" t="s">
+      <c r="AQ31" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AR31" s="59"/>
-      <c r="AS31" s="59"/>
-      <c r="AT31" s="59"/>
-      <c r="AU31" s="59"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="54"/>
+      <c r="AU31" s="54"/>
       <c r="AV31" s="7">
         <v>515</v>
       </c>
@@ -4469,7 +4492,15 @@
         <v>508</v>
       </c>
       <c r="X32" s="8"/>
-      <c r="AA32" s="21"/>
+      <c r="Y32" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z32" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA32" s="73">
+        <v>511</v>
+      </c>
       <c r="AB32" s="20" t="s">
         <v>122</v>
       </c>
@@ -4501,13 +4532,13 @@
       <c r="AP32" s="8">
         <v>307</v>
       </c>
-      <c r="AQ32" s="70" t="s">
+      <c r="AQ32" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="AR32" s="59"/>
-      <c r="AS32" s="59"/>
-      <c r="AT32" s="59"/>
-      <c r="AU32" s="59"/>
+      <c r="AR32" s="54"/>
+      <c r="AS32" s="54"/>
+      <c r="AT32" s="54"/>
+      <c r="AU32" s="54"/>
       <c r="AV32" s="7">
         <v>515</v>
       </c>
@@ -4550,9 +4581,6 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="21"/>
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
       <c r="AD33" s="21"/>
@@ -4590,13 +4618,13 @@
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
       <c r="L34" s="7" t="s">
         <v>236</v>
       </c>
@@ -4665,13 +4693,13 @@
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
       <c r="L35" s="7" t="s">
         <v>236</v>
       </c>
@@ -4776,15 +4804,6 @@
       <c r="X36" s="50">
         <v>339</v>
       </c>
-      <c r="Y36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA36" s="21">
-        <v>511</v>
-      </c>
       <c r="AE36" s="20" t="s">
         <v>152</v>
       </c>
@@ -4815,13 +4834,13 @@
       <c r="AN36" s="3"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="70" t="s">
+      <c r="AQ36" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AR36" s="59"/>
-      <c r="AS36" s="59"/>
-      <c r="AT36" s="59"/>
-      <c r="AU36" s="59"/>
+      <c r="AR36" s="54"/>
+      <c r="AS36" s="54"/>
+      <c r="AT36" s="54"/>
+      <c r="AU36" s="54"/>
       <c r="AV36" s="7">
         <v>515</v>
       </c>
@@ -4866,15 +4885,6 @@
         <v>508</v>
       </c>
       <c r="X37" s="8"/>
-      <c r="Y37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA37" s="21">
-        <v>511</v>
-      </c>
       <c r="AB37" s="20" t="s">
         <v>131</v>
       </c>
@@ -5124,13 +5134,13 @@
       <c r="AP40" s="8">
         <v>307</v>
       </c>
-      <c r="AQ40" s="66" t="s">
+      <c r="AQ40" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AR40" s="67"/>
-      <c r="AS40" s="67"/>
-      <c r="AT40" s="67"/>
-      <c r="AU40" s="67"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="59"/>
+      <c r="AT40" s="59"/>
+      <c r="AU40" s="59"/>
       <c r="AV40" s="21" t="s">
         <v>240</v>
       </c>
@@ -5225,13 +5235,13 @@
         <v>239</v>
       </c>
       <c r="AP41" s="8"/>
-      <c r="AQ41" s="66" t="s">
+      <c r="AQ41" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="AR41" s="67"/>
-      <c r="AS41" s="67"/>
-      <c r="AT41" s="67"/>
-      <c r="AU41" s="67"/>
+      <c r="AR41" s="59"/>
+      <c r="AS41" s="59"/>
+      <c r="AT41" s="59"/>
+      <c r="AU41" s="59"/>
       <c r="AV41" s="21" t="s">
         <v>240</v>
       </c>
@@ -5902,13 +5912,13 @@
       <c r="AN51" s="5"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="8"/>
-      <c r="AQ51" s="70" t="s">
+      <c r="AQ51" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="AR51" s="59"/>
-      <c r="AS51" s="59"/>
-      <c r="AT51" s="59"/>
-      <c r="AU51" s="59"/>
+      <c r="AR51" s="54"/>
+      <c r="AS51" s="54"/>
+      <c r="AT51" s="54"/>
+      <c r="AU51" s="54"/>
       <c r="AV51" s="7">
         <v>515</v>
       </c>
@@ -7164,12 +7174,12 @@
       <c r="AY72" s="14"/>
     </row>
     <row r="73" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -7300,12 +7310,12 @@
       <c r="A75" s="30"/>
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -7368,12 +7378,12 @@
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -7436,12 +7446,12 @@
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="68"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -7501,12 +7511,12 @@
       <c r="BN77" s="5"/>
     </row>
     <row r="78" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -7637,12 +7647,12 @@
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -7705,12 +7715,12 @@
       <c r="A81" s="30"/>
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -7773,12 +7783,12 @@
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -7841,12 +7851,12 @@
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -8343,40 +8353,22 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AQ32:AU32"/>
-    <mergeCell ref="AQ36:AU36"/>
-    <mergeCell ref="AQ12:AU12"/>
-    <mergeCell ref="AQ13:AU13"/>
-    <mergeCell ref="AQ27:AU27"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AQ11:AU11"/>
-    <mergeCell ref="AQ16:AU16"/>
-    <mergeCell ref="AQ17:AU17"/>
-    <mergeCell ref="AQ21:AU21"/>
-    <mergeCell ref="AQ22:AU22"/>
-    <mergeCell ref="AQ31:AU31"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="AQ40:AU40"/>
-    <mergeCell ref="AQ41:AU41"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="AQ51:AU51"/>
-    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="G35:K35"/>
     <mergeCell ref="D1:O1"/>
@@ -8393,22 +8385,40 @@
     <mergeCell ref="BC3:BE3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AQ40:AU40"/>
+    <mergeCell ref="AQ41:AU41"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="AQ51:AU51"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AQ11:AU11"/>
+    <mergeCell ref="AQ16:AU16"/>
+    <mergeCell ref="AQ17:AU17"/>
+    <mergeCell ref="AQ21:AU21"/>
+    <mergeCell ref="AQ22:AU22"/>
+    <mergeCell ref="AQ31:AU31"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="AQ32:AU32"/>
+    <mergeCell ref="AQ36:AU36"/>
+    <mergeCell ref="AQ12:AU12"/>
+    <mergeCell ref="AQ13:AU13"/>
+    <mergeCell ref="AQ27:AU27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_4.xlsx
+++ b/Rozklad_4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="20730" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="V41" authorId="0">
+    <comment ref="V41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW59" authorId="0">
+    <comment ref="AW59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW60" authorId="0">
+    <comment ref="AW60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="242">
   <si>
     <t>І</t>
   </si>
@@ -822,7 +822,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1022,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1178,11 +1178,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1190,8 +1226,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1202,43 +1238,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1513,7 +1534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1524,10 +1545,10 @@
   <dimension ref="A1:BN90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomRight" activeCell="AQ22" sqref="AQ22:AU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,215 +1629,215 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="61" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="61" t="s">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="61" t="s">
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="61" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="63"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="66"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="69" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="69" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="65" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="64" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="69" t="s">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="65" t="s">
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="65"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="64" t="s">
+      <c r="W2" s="57"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="69" t="s">
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="65" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="64" t="s">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="69" t="s">
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="65" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="64" t="s">
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="65" t="s">
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="70"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="59"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="64" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="65" t="s">
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="65" t="s">
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AX3" s="65"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="68"/>
-      <c r="BC3" s="68"/>
-      <c r="BD3" s="68"/>
-      <c r="BE3" s="68"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
     </row>
     <row r="4" spans="1:57" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1986,20 +2007,20 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="19" t="s">
         <v>90</v>
       </c>
@@ -2055,13 +2076,13 @@
       <c r="AJ5" s="34">
         <v>514</v>
       </c>
-      <c r="AK5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM5" s="34" t="s">
+      <c r="AK5" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL5" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM5" s="74" t="s">
         <v>239</v>
       </c>
       <c r="AN5" s="33" t="s">
@@ -2073,13 +2094,13 @@
       <c r="AP5" s="16">
         <v>307</v>
       </c>
-      <c r="AQ5" s="58" t="s">
+      <c r="AQ5" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
+      <c r="AR5" s="71"/>
+      <c r="AS5" s="71"/>
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
       <c r="AV5" s="21" t="s">
         <v>240</v>
       </c>
@@ -2095,20 +2116,20 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="69"/>
       <c r="P6" s="19" t="s">
         <v>90</v>
       </c>
@@ -2164,13 +2185,13 @@
       <c r="AJ6" s="34">
         <v>514</v>
       </c>
-      <c r="AK6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM6" s="34" t="s">
+      <c r="AK6" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL6" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM6" s="74" t="s">
         <v>239</v>
       </c>
       <c r="AN6" s="33" t="s">
@@ -2182,13 +2203,13 @@
       <c r="AP6" s="16">
         <v>307</v>
       </c>
-      <c r="AQ6" s="58" t="s">
+      <c r="AQ6" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="71"/>
+      <c r="AU6" s="71"/>
       <c r="AV6" s="21" t="s">
         <v>240</v>
       </c>
@@ -2204,13 +2225,13 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="21">
         <v>505</v>
       </c>
@@ -2269,13 +2290,13 @@
       <c r="AJ7" s="34">
         <v>514</v>
       </c>
-      <c r="AK7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM7" s="34" t="s">
+      <c r="AK7" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL7" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM7" s="75" t="s">
         <v>239</v>
       </c>
       <c r="AN7" s="33" t="s">
@@ -2311,13 +2332,13 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="21">
         <v>505</v>
       </c>
@@ -2366,13 +2387,13 @@
       <c r="AJ8" s="34">
         <v>514</v>
       </c>
-      <c r="AK8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM8" s="34" t="s">
+      <c r="AK8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL8" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM8" s="75" t="s">
         <v>239</v>
       </c>
       <c r="AN8" s="33" t="s">
@@ -2460,20 +2481,20 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
       <c r="P10" s="19" t="s">
         <v>90</v>
       </c>
@@ -2495,15 +2516,6 @@
       <c r="X10" s="50">
         <v>339</v>
       </c>
-      <c r="Y10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA10" s="21">
-        <v>511</v>
-      </c>
       <c r="AB10" s="2" t="s">
         <v>132</v>
       </c>
@@ -2531,13 +2543,13 @@
       <c r="AJ10" s="7">
         <v>514</v>
       </c>
-      <c r="AK10" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL10" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM10" s="34" t="s">
+      <c r="AK10" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL10" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM10" s="74" t="s">
         <v>239</v>
       </c>
       <c r="AN10" s="5" t="s">
@@ -2549,13 +2561,13 @@
       <c r="AP10" s="8">
         <v>307</v>
       </c>
-      <c r="AQ10" s="53" t="s">
+      <c r="AQ10" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="63"/>
+      <c r="AU10" s="63"/>
       <c r="AV10" s="7">
         <v>515</v>
       </c>
@@ -2577,15 +2589,6 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>234</v>
-      </c>
       <c r="M11" s="5" t="s">
         <v>79</v>
       </c>
@@ -2644,13 +2647,13 @@
       <c r="AJ11" s="7">
         <v>514</v>
       </c>
-      <c r="AK11" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL11" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM11" s="34" t="s">
+      <c r="AK11" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL11" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM11" s="74" t="s">
         <v>239</v>
       </c>
       <c r="AN11" s="33" t="s">
@@ -2662,13 +2665,13 @@
       <c r="AP11" s="8">
         <v>307</v>
       </c>
-      <c r="AQ11" s="53" t="s">
+      <c r="AQ11" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="63"/>
+      <c r="AU11" s="63"/>
       <c r="AV11" s="7">
         <v>515</v>
       </c>
@@ -2696,15 +2699,6 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>234</v>
-      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="8"/>
@@ -2749,25 +2743,25 @@
       <c r="AJ12" s="7">
         <v>514</v>
       </c>
-      <c r="AK12" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL12" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM12" s="7" t="s">
+      <c r="AK12" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL12" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM12" s="74" t="s">
         <v>239</v>
       </c>
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="8"/>
-      <c r="AQ12" s="53" t="s">
+      <c r="AQ12" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="63"/>
+      <c r="AU12" s="63"/>
       <c r="AV12" s="21">
         <v>515</v>
       </c>
@@ -2820,25 +2814,25 @@
       <c r="AJ13" s="7">
         <v>514</v>
       </c>
-      <c r="AK13" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL13" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM13" s="7" t="s">
+      <c r="AK13" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL13" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM13" s="74" t="s">
         <v>239</v>
       </c>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="53" t="s">
+      <c r="AQ13" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="63"/>
+      <c r="AT13" s="63"/>
+      <c r="AU13" s="63"/>
       <c r="AV13" s="21">
         <v>515</v>
       </c>
@@ -2856,9 +2850,15 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="7"/>
+      <c r="J14" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="79">
+        <v>344</v>
+      </c>
       <c r="M14" s="5" t="s">
         <v>107</v>
       </c>
@@ -2924,13 +2924,13 @@
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="7" t="s">
         <v>236</v>
       </c>
@@ -2964,9 +2964,6 @@
       <c r="X15" s="50">
         <v>339</v>
       </c>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="21"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
       <c r="AD15" s="21"/>
@@ -3009,6 +3006,7 @@
       <c r="AY15" s="8">
         <v>322</v>
       </c>
+      <c r="BE15" s="53"/>
     </row>
     <row r="16" spans="1:57" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -3018,23 +3016,23 @@
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="7">
         <v>505</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="34" t="s">
+      <c r="J16" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="75" t="s">
         <v>234</v>
       </c>
       <c r="M16" s="5"/>
@@ -3115,13 +3113,13 @@
       <c r="AP16" s="8">
         <v>307</v>
       </c>
-      <c r="AQ16" s="53" t="s">
+      <c r="AQ16" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="AR16" s="54"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
       <c r="AV16" s="7">
         <v>515</v>
       </c>
@@ -3143,19 +3141,16 @@
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="7">
         <v>505</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="8"/>
@@ -3210,25 +3205,25 @@
       <c r="AJ17" s="38">
         <v>514</v>
       </c>
-      <c r="AK17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM17" s="7" t="s">
+      <c r="AK17" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL17" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM17" s="74" t="s">
         <v>239</v>
       </c>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="8"/>
-      <c r="AQ17" s="53" t="s">
+      <c r="AQ17" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
       <c r="AV17" s="7">
         <v>515</v>
       </c>
@@ -3289,12 +3284,15 @@
       <c r="AH18" s="6"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="7"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="8"/>
+      <c r="AK18" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL18" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM18" s="74" t="s">
+        <v>239</v>
+      </c>
       <c r="AQ18" s="40"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
@@ -3371,13 +3369,13 @@
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="7" t="s">
         <v>236</v>
       </c>
@@ -3432,9 +3430,15 @@
       <c r="AQ20" s="6"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="7"/>
+      <c r="AT20" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU20" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV20" s="75">
+        <v>515</v>
+      </c>
       <c r="AW20" s="5"/>
       <c r="AX20" s="5"/>
       <c r="AY20" s="8"/>
@@ -3447,23 +3451,23 @@
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="21">
         <v>505</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="J21" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" s="74" t="s">
         <v>234</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -3502,13 +3506,13 @@
       <c r="X21" s="50">
         <v>339</v>
       </c>
-      <c r="Y21" s="72" t="s">
+      <c r="Y21" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="Z21" s="72" t="s">
+      <c r="Z21" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="AA21" s="73">
+      <c r="AA21" s="54">
         <v>511</v>
       </c>
       <c r="AB21" s="20" t="s">
@@ -3556,13 +3560,13 @@
       <c r="AP21" s="8">
         <v>307</v>
       </c>
-      <c r="AQ21" s="53" t="s">
+      <c r="AQ21" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
+      <c r="AU21" s="63"/>
       <c r="AV21" s="7"/>
       <c r="AW21" s="5" t="s">
         <v>220</v>
@@ -3582,19 +3586,16 @@
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
       <c r="I22" s="21">
         <v>505</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="7"/>
       <c r="M22" s="2" t="s">
         <v>202</v>
       </c>
@@ -3625,13 +3626,13 @@
       <c r="X22" s="50">
         <v>339</v>
       </c>
-      <c r="Y22" s="72" t="s">
+      <c r="Y22" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="Z22" s="72" t="s">
+      <c r="Z22" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="AA22" s="73">
+      <c r="AA22" s="54">
         <v>511</v>
       </c>
       <c r="AB22" s="2" t="s">
@@ -3679,13 +3680,13 @@
       <c r="AP22" s="8">
         <v>307</v>
       </c>
-      <c r="AQ22" s="53" t="s">
+      <c r="AQ22" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="AR22" s="54"/>
-      <c r="AS22" s="54"/>
-      <c r="AT22" s="54"/>
-      <c r="AU22" s="54"/>
+      <c r="AR22" s="63"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="63"/>
+      <c r="AU22" s="63"/>
       <c r="AV22" s="7"/>
       <c r="AW22" s="5" t="s">
         <v>220</v>
@@ -3726,13 +3727,13 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="72" t="s">
+      <c r="Y23" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="Z23" s="72" t="s">
+      <c r="Z23" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="AA23" s="73">
+      <c r="AA23" s="54">
         <v>511</v>
       </c>
       <c r="AD23" s="21"/>
@@ -3746,15 +3747,6 @@
       </c>
       <c r="AJ23" s="7">
         <v>514</v>
-      </c>
-      <c r="AK23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM23" s="38" t="s">
-        <v>239</v>
       </c>
       <c r="AN23" s="5"/>
       <c r="AO23" s="33"/>
@@ -3776,13 +3768,13 @@
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="7" t="s">
         <v>236</v>
       </c>
@@ -3869,9 +3861,15 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="8"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="21"/>
+      <c r="Y25" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z25" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA25" s="54">
+        <v>344</v>
+      </c>
       <c r="AB25" s="20"/>
       <c r="AC25" s="20"/>
       <c r="AD25" s="21"/>
@@ -3896,15 +3894,6 @@
       <c r="AQ25" s="6"/>
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
-      <c r="AT25" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AU25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV25" s="7">
-        <v>515</v>
-      </c>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="8"/>
@@ -3923,9 +3912,15 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
+      <c r="J26" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="79" t="s">
+        <v>234</v>
+      </c>
       <c r="M26" s="5" t="s">
         <v>203</v>
       </c>
@@ -3998,13 +3993,13 @@
       <c r="AJ26" s="7">
         <v>514</v>
       </c>
-      <c r="AK26" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL26" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM26" s="34" t="s">
+      <c r="AK26" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL26" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM26" s="75" t="s">
         <v>239</v>
       </c>
       <c r="AN26" s="5" t="s">
@@ -4019,15 +4014,6 @@
       <c r="AQ26" s="40"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
-      <c r="AT26" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AU26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV26" s="7">
-        <v>515</v>
-      </c>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
       <c r="AY26" s="8"/>
@@ -4115,13 +4101,13 @@
       <c r="AJ27" s="7">
         <v>514</v>
       </c>
-      <c r="AK27" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL27" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM27" s="34" t="s">
+      <c r="AK27" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL27" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM27" s="75" t="s">
         <v>239</v>
       </c>
       <c r="AN27" s="5" t="s">
@@ -4133,13 +4119,13 @@
       <c r="AP27" s="8">
         <v>307</v>
       </c>
-      <c r="AQ27" s="53" t="s">
+      <c r="AQ27" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="AR27" s="54"/>
-      <c r="AS27" s="54"/>
-      <c r="AT27" s="54"/>
-      <c r="AU27" s="54"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="63"/>
       <c r="AV27" s="7">
         <v>515</v>
       </c>
@@ -4239,9 +4225,6 @@
       <c r="AH29" s="6"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="7"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="7"/>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="8"/>
@@ -4323,9 +4306,15 @@
       <c r="AQ30" s="6"/>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="7"/>
+      <c r="AT30" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU30" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV30" s="75">
+        <v>344</v>
+      </c>
       <c r="AW30" s="3" t="s">
         <v>73</v>
       </c>
@@ -4344,13 +4333,13 @@
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="7">
         <v>505</v>
       </c>
@@ -4399,16 +4388,24 @@
       <c r="X31" s="50">
         <v>339</v>
       </c>
-      <c r="Y31" s="72" t="s">
+      <c r="Y31" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="Z31" s="72" t="s">
+      <c r="Z31" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="AA31" s="73">
+      <c r="AA31" s="54">
         <v>511</v>
       </c>
-      <c r="AD31" s="21"/>
+      <c r="AB31" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC31" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD31" s="54">
+        <v>509</v>
+      </c>
       <c r="AE31" s="20"/>
       <c r="AF31" s="20"/>
       <c r="AG31" s="8"/>
@@ -4421,11 +4418,11 @@
       <c r="AJ31" s="7">
         <v>514</v>
       </c>
-      <c r="AK31" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL31" s="46" t="s">
-        <v>162</v>
+      <c r="AK31" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL31" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="AM31" s="7" t="s">
         <v>239</v>
@@ -4433,13 +4430,13 @@
       <c r="AN31" s="3"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="53" t="s">
+      <c r="AQ31" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="54"/>
-      <c r="AT31" s="54"/>
-      <c r="AU31" s="54"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="63"/>
       <c r="AV31" s="7">
         <v>515</v>
       </c>
@@ -4492,23 +4489,14 @@
         <v>508</v>
       </c>
       <c r="X32" s="8"/>
-      <c r="Y32" s="72" t="s">
+      <c r="Y32" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="Z32" s="72" t="s">
+      <c r="Z32" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="AA32" s="73">
+      <c r="AA32" s="54">
         <v>511</v>
-      </c>
-      <c r="AB32" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC32" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD32" s="21">
-        <v>509</v>
       </c>
       <c r="AE32" s="20" t="s">
         <v>156</v>
@@ -4522,7 +4510,15 @@
       <c r="AH32" s="6"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="7"/>
-      <c r="AM32" s="7"/>
+      <c r="AK32" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL32" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM32" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="AN32" s="5" t="s">
         <v>177</v>
       </c>
@@ -4532,13 +4528,13 @@
       <c r="AP32" s="8">
         <v>307</v>
       </c>
-      <c r="AQ32" s="53" t="s">
+      <c r="AQ32" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="AR32" s="54"/>
-      <c r="AS32" s="54"/>
-      <c r="AT32" s="54"/>
-      <c r="AU32" s="54"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
+      <c r="AU32" s="63"/>
       <c r="AV32" s="7">
         <v>515</v>
       </c>
@@ -4590,9 +4586,6 @@
       <c r="AH33" s="6"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="7"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="7"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="8"/>
@@ -4618,13 +4611,13 @@
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
       <c r="L34" s="7" t="s">
         <v>236</v>
       </c>
@@ -4693,13 +4686,13 @@
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
       <c r="L35" s="7" t="s">
         <v>236</v>
       </c>
@@ -4804,6 +4797,15 @@
       <c r="X36" s="50">
         <v>339</v>
       </c>
+      <c r="AB36" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC36" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD36" s="54">
+        <v>509</v>
+      </c>
       <c r="AE36" s="20" t="s">
         <v>152</v>
       </c>
@@ -4834,13 +4836,13 @@
       <c r="AN36" s="3"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="53" t="s">
+      <c r="AQ36" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="AR36" s="54"/>
-      <c r="AS36" s="54"/>
-      <c r="AT36" s="54"/>
-      <c r="AU36" s="54"/>
+      <c r="AR36" s="63"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="63"/>
+      <c r="AU36" s="63"/>
       <c r="AV36" s="7">
         <v>515</v>
       </c>
@@ -4848,7 +4850,7 @@
       <c r="AX36" s="5"/>
       <c r="AY36" s="8"/>
     </row>
-    <row r="37" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>2</v>
@@ -4885,15 +4887,6 @@
         <v>508</v>
       </c>
       <c r="X37" s="8"/>
-      <c r="AB37" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC37" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD37" s="21">
-        <v>509</v>
-      </c>
       <c r="AE37" s="20"/>
       <c r="AF37" s="20"/>
       <c r="AG37" s="8"/>
@@ -4906,13 +4899,13 @@
       <c r="AJ37" s="7">
         <v>514</v>
       </c>
-      <c r="AK37" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL37" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM37" s="7" t="s">
+      <c r="AK37" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL37" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM37" s="75" t="s">
         <v>239</v>
       </c>
       <c r="AN37" s="3" t="s">
@@ -4964,24 +4957,12 @@
       <c r="W38" s="5"/>
       <c r="X38" s="8"/>
       <c r="AA38" s="21"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="21"/>
       <c r="AE38" s="20"/>
       <c r="AF38" s="20"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="7"/>
-      <c r="AK38" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL38" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM38" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="8"/>
@@ -5134,13 +5115,13 @@
       <c r="AP40" s="8">
         <v>307</v>
       </c>
-      <c r="AQ40" s="58" t="s">
+      <c r="AQ40" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="AR40" s="59"/>
-      <c r="AS40" s="59"/>
-      <c r="AT40" s="59"/>
-      <c r="AU40" s="59"/>
+      <c r="AR40" s="71"/>
+      <c r="AS40" s="71"/>
+      <c r="AT40" s="71"/>
+      <c r="AU40" s="71"/>
       <c r="AV40" s="21" t="s">
         <v>240</v>
       </c>
@@ -5235,13 +5216,13 @@
         <v>239</v>
       </c>
       <c r="AP41" s="8"/>
-      <c r="AQ41" s="58" t="s">
+      <c r="AQ41" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="AR41" s="59"/>
-      <c r="AS41" s="59"/>
-      <c r="AT41" s="59"/>
-      <c r="AU41" s="59"/>
+      <c r="AR41" s="71"/>
+      <c r="AS41" s="71"/>
+      <c r="AT41" s="71"/>
+      <c r="AU41" s="71"/>
       <c r="AV41" s="21" t="s">
         <v>240</v>
       </c>
@@ -5506,15 +5487,6 @@
       <c r="AQ45" s="6"/>
       <c r="AR45" s="33"/>
       <c r="AS45" s="5"/>
-      <c r="AT45" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU45" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV45" s="7">
-        <v>515</v>
-      </c>
       <c r="AW45" s="5"/>
       <c r="AX45" s="5"/>
       <c r="AY45" s="8"/>
@@ -5663,9 +5635,15 @@
       <c r="AQ47" s="6"/>
       <c r="AR47" s="5"/>
       <c r="AS47" s="5"/>
-      <c r="AT47" s="5"/>
-      <c r="AU47" s="5"/>
-      <c r="AV47" s="7"/>
+      <c r="AT47" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU47" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV47" s="75">
+        <v>515</v>
+      </c>
       <c r="AW47" s="5"/>
       <c r="AX47" s="5"/>
       <c r="AY47" s="8"/>
@@ -5912,13 +5890,13 @@
       <c r="AN51" s="5"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="8"/>
-      <c r="AQ51" s="53" t="s">
+      <c r="AQ51" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="AR51" s="54"/>
-      <c r="AS51" s="54"/>
-      <c r="AT51" s="54"/>
-      <c r="AU51" s="54"/>
+      <c r="AR51" s="63"/>
+      <c r="AS51" s="63"/>
+      <c r="AT51" s="63"/>
+      <c r="AU51" s="63"/>
       <c r="AV51" s="7">
         <v>515</v>
       </c>
@@ -7174,12 +7152,12 @@
       <c r="AY72" s="14"/>
     </row>
     <row r="73" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -7310,12 +7288,12 @@
       <c r="A75" s="30"/>
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -7378,12 +7356,12 @@
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -7446,12 +7424,12 @@
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -7511,12 +7489,12 @@
       <c r="BN77" s="5"/>
     </row>
     <row r="78" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -7647,12 +7625,12 @@
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="60"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -7715,12 +7693,12 @@
       <c r="A81" s="30"/>
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -7783,12 +7761,12 @@
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -7851,12 +7829,12 @@
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -8353,22 +8331,40 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="AQ32:AU32"/>
+    <mergeCell ref="AQ36:AU36"/>
+    <mergeCell ref="AQ12:AU12"/>
+    <mergeCell ref="AQ13:AU13"/>
+    <mergeCell ref="AQ27:AU27"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AQ11:AU11"/>
+    <mergeCell ref="AQ16:AU16"/>
+    <mergeCell ref="AQ17:AU17"/>
+    <mergeCell ref="AQ21:AU21"/>
+    <mergeCell ref="AQ22:AU22"/>
+    <mergeCell ref="AQ31:AU31"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="AQ40:AU40"/>
+    <mergeCell ref="AQ41:AU41"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="AQ51:AU51"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="G35:K35"/>
     <mergeCell ref="D1:O1"/>
@@ -8385,40 +8381,22 @@
     <mergeCell ref="BC3:BE3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
-    <mergeCell ref="AQ40:AU40"/>
-    <mergeCell ref="AQ41:AU41"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="AQ51:AU51"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AQ11:AU11"/>
-    <mergeCell ref="AQ16:AU16"/>
-    <mergeCell ref="AQ17:AU17"/>
-    <mergeCell ref="AQ21:AU21"/>
-    <mergeCell ref="AQ22:AU22"/>
-    <mergeCell ref="AQ31:AU31"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="AQ32:AU32"/>
-    <mergeCell ref="AQ36:AU36"/>
-    <mergeCell ref="AQ12:AU12"/>
-    <mergeCell ref="AQ13:AU13"/>
-    <mergeCell ref="AQ27:AU27"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AW3:AY3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
